--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>URL ID</t>
+          <t>url_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>url</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -518,57 +518,8233 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Netclan20241030</t>
+          <t>Netclan20241017</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://insights.blackcoffer.com/analyzing-the-impact-of-positive-emotions-and-pandemic-severity-on-mental-health-and-resilience-among-entrepreneurs-insights-and-predictive-modeling/</t>
+          <t>https://insights.blackcoffer.com/ai-and-ml-based-youtube-analytics-and-content-creation-tool-for-optimizing-subscriber-engagement-and-content-strategy/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Analyzing the Impact of Positive Emotions and Pandemic Severity on Mental Health and Resilience Among Entrepreneurs: Insights and Predictive Modeling</t>
+          <t>AI and ML-Based YouTube Analytics and Content Creation Tool for Optimizing Subscriber Engagement and Content Strategy</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3333333148148158</v>
+        <v>0.2499999687500039</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05769230750739645</v>
+        <v>0.04444444419753087</v>
       </c>
       <c r="H2" t="n">
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>47.11538461538461</v>
+        <v>32.77777777777778</v>
       </c>
       <c r="J2" t="n">
-        <v>23.64615384615385</v>
+        <v>17.91111111111111</v>
       </c>
       <c r="K2" t="n">
         <v>12</v>
       </c>
       <c r="L2" t="n">
+        <v>59</v>
+      </c>
+      <c r="M2" t="n">
+        <v>180</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6.677777777777778</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Netclan20241018</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/enhancing-front-end-features-and-functionality-for-improved-user-experience-and-dashboard-accuracy-in-partner-hospital-application/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Enhancing Front-End Features and Functionality for Improved User Experience and Dashboard Accuracy in Partner Hospital Application</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2173912948960307</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.05437352233008624</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.613636363636363</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31.20567375886525</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16.32772404900065</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.613636363636363</v>
+      </c>
+      <c r="L3" t="n">
+        <v>132</v>
+      </c>
+      <c r="M3" t="n">
+        <v>423</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.191489361702128</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6.635933806146572</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Netclan20241019</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/roas-dashboard-for-campaign-wise-google-ads-budget-tracking-using-google-ads-ap/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ROAS Dashboard for Campaign-Wise Google Ads Budget Tracking Using Google Ads AP</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2380952267573701</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.07046979842124229</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.46153846153846</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25.50335570469799</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.78595766649458</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.46153846153846</v>
+      </c>
+      <c r="L4" t="n">
+        <v>76</v>
+      </c>
+      <c r="M4" t="n">
+        <v>298</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.077181208053691</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6.345637583892618</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Netclan20241020</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/efficient-processing-and-analysis-of-financial-data-from-pdf-files-addressing-formatting-inconsistencies-and-ensuring-data-integrity-for-a-toyota-dealership-management-firm/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Efficient Processing and Analysis of Financial Data from PDF Files: Addressing Formatting Inconsistencies and Ensuring Data Integrity for a Toyota Dealership Management Firm</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2941176384083048</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.08252427164435856</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12.875</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50.24271844660194</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25.24708737864078</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.875</v>
+      </c>
+      <c r="L5" t="n">
+        <v>207</v>
+      </c>
+      <c r="M5" t="n">
+        <v>412</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.606796116504854</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7.740291262135922</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Netclan20241021</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/development-of-ea-robot-for-automated-trading/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Development of EA Robot for Automated Trading</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6470587854671302</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03578947360886427</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.916666666666667</v>
+      </c>
+      <c r="I6" t="n">
+        <v>33.89473684210526</v>
+      </c>
+      <c r="J6" t="n">
+        <v>16.72456140350877</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.916666666666667</v>
+      </c>
+      <c r="L6" t="n">
+        <v>161</v>
+      </c>
+      <c r="M6" t="n">
+        <v>475</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.296842105263158</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.595789473684211</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Netclan20241022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-and-ml-based-youtube-analytics-and-content-creation-tool-for-optimizing-subscriber-engagement-and-content-strategy/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AI and ML-Based YouTube Analytics and Content Creation Tool for Optimizing Subscriber Engagement and Content Strategy</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2499999687500039</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04444444419753087</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12</v>
+      </c>
+      <c r="I7" t="n">
+        <v>32.77777777777778</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17.91111111111111</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12</v>
+      </c>
+      <c r="L7" t="n">
+        <v>59</v>
+      </c>
+      <c r="M7" t="n">
+        <v>180</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.677777777777778</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Netclan20241023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/enhancing-front-end-features-and-functionality-for-improved-user-experience-and-dashboard-accuracy-in-partner-hospital-application/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Enhancing Front-End Features and Functionality for Improved User Experience and Dashboard Accuracy in Partner Hospital Application</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2173912948960307</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.05437352233008624</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9.613636363636363</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31.20567375886525</v>
+      </c>
+      <c r="J8" t="n">
+        <v>16.32772404900065</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.613636363636363</v>
+      </c>
+      <c r="L8" t="n">
+        <v>132</v>
+      </c>
+      <c r="M8" t="n">
+        <v>423</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.191489361702128</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6.635933806146572</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Netclan20241024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/roas-dashboard-for-campaign-wise-google-ads-budget-tracking-using-google-ads-ap/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ROAS Dashboard for Campaign-Wise Google Ads Budget Tracking Using Google Ads AP</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2380952267573701</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.07046979842124229</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11.46153846153846</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25.50335570469799</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14.78595766649458</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.46153846153846</v>
+      </c>
+      <c r="L9" t="n">
+        <v>76</v>
+      </c>
+      <c r="M9" t="n">
+        <v>298</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.077181208053691</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6.345637583892618</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Netclan20241025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/efficient-processing-and-analysis-of-financial-data-from-pdf-files-addressing-formatting-inconsistencies-and-ensuring-data-integrity-for-a-toyota-dealership-management-firm/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Efficient Processing and Analysis of Financial Data from PDF Files: Addressing Formatting Inconsistencies and Ensuring Data Integrity for a Toyota Dealership Management Firm</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>22</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2941176384083048</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.08252427164435856</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.875</v>
+      </c>
+      <c r="I10" t="n">
+        <v>50.24271844660194</v>
+      </c>
+      <c r="J10" t="n">
+        <v>25.24708737864078</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12.875</v>
+      </c>
+      <c r="L10" t="n">
+        <v>207</v>
+      </c>
+      <c r="M10" t="n">
+        <v>412</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.606796116504854</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7.740291262135922</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Netclan20241026</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/transforming-and-managing-a-large-scale-sql-pedigree-database-to-neo4j-graph-db/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Transforming and Managing a Large-Scale SQL Pedigree Database to Neo4j Graph DB</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>57</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4249999946875001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.07017543853493381</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.17857142857143</v>
+      </c>
+      <c r="I11" t="n">
+        <v>50.17543859649123</v>
+      </c>
+      <c r="J11" t="n">
+        <v>24.14160401002506</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.17857142857143</v>
+      </c>
+      <c r="L11" t="n">
+        <v>572</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1140</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.653508771929824</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7.619298245614035</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Netclan20241027</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/enhancing-model-accuracy-from-58-to-over-90-strategies-for-improving-predictive-performance/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Enhancing Model Accuracy from 58% to Over 90%: Strategies for Improving Predictive Performance</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4166666493055562</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.07017543839129989</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>49.70760233918129</v>
+      </c>
+      <c r="J12" t="n">
+        <v>24.44304093567251</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>170</v>
+      </c>
+      <c r="M12" t="n">
+        <v>342</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.654970760233918</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7.628654970760234</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Netclan20241028</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/securing-sensitive-financial-data-with-privacy-preserving-machine-learning-for-predictive-analytics/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Securing Sensitive Financial Data with Privacy-Preserving Machine Learning for Predictive Analytics</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>26</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7333333088888897</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.06249999986979167</v>
+      </c>
+      <c r="H13" t="n">
+        <v>14.11764705882353</v>
+      </c>
+      <c r="I13" t="n">
+        <v>53.125</v>
+      </c>
+      <c r="J13" t="n">
+        <v>26.89705882352942</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14.11764705882353</v>
+      </c>
+      <c r="L13" t="n">
+        <v>255</v>
+      </c>
+      <c r="M13" t="n">
+        <v>480</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.658333333333333</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>7.652083333333334</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Netclan20241029</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/enhancing-data-collection-for-research-institutions-addressing-survey-fatigue-and-incorporating-verbal-communication-for-richer-insights/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Enhancing Data Collection for Research Institutions: Addressing Survey Fatigue and Incorporating Verbal Communication for Richer Insights</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>22</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5714285510204089</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.08562691105312871</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10.54838709677419</v>
+      </c>
+      <c r="I14" t="n">
+        <v>37.30886850152906</v>
+      </c>
+      <c r="J14" t="n">
+        <v>19.1429022393213</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10.54838709677419</v>
+      </c>
+      <c r="L14" t="n">
+        <v>122</v>
+      </c>
+      <c r="M14" t="n">
+        <v>327</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.36697247706422</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7.461773700305811</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Netclan20241030</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/analyzing-the-impact-of-positive-emotions-and-pandemic-severity-on-mental-health-and-resilience-among-entrepreneurs-insights-and-predictive-modeling/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Analyzing the Impact of Positive Emotions and Pandemic Severity on Mental Health and Resilience Among Entrepreneurs: Insights and Predictive Modeling</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3333333148148158</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.05769230750739645</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+      <c r="I15" t="n">
+        <v>47.11538461538461</v>
+      </c>
+      <c r="J15" t="n">
+        <v>23.64615384615385</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12</v>
+      </c>
+      <c r="L15" t="n">
         <v>147</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M15" t="n">
         <v>312</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N15" t="n">
         <v>2.580128205128205</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O15" t="n">
         <v>5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P15" t="n">
         <v>7.701923076923077</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Netclan20241031</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/dynamic-brand-centric-dashboard-for-automotive-dealerships-pdf-to-financial-insights-with-flask-react-architecture-and-aws-cloud-hosting/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Dynamic, Brand-Centric Dashboard for Automotive Dealerships: PDF to Financial Insights with Flask-React Architecture and AWS Cloud Hosting</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>62</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4252873514334787</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1001150746834119</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11.9041095890411</v>
+      </c>
+      <c r="I16" t="n">
+        <v>47.18066743383199</v>
+      </c>
+      <c r="J16" t="n">
+        <v>23.63391080914923</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11.9041095890411</v>
+      </c>
+      <c r="L16" t="n">
+        <v>410</v>
+      </c>
+      <c r="M16" t="n">
+        <v>869</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.524741081703107</v>
+      </c>
+      <c r="O16" t="n">
+        <v>10</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7.456846950517837</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Netclan20241032</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/cloud-based-data-modeling-and-analysis-platform-with-drag-and-drop-interface-and-openai-api-integration-for-simulation-insights/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Cloud-Based Data Modeling and Analysis Platform with Drag-and-Drop Interface and OpenAI API Integration for Simulation Insights</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>26</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.130434779773157</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.07516339856999445</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7.948051948051948</v>
+      </c>
+      <c r="I17" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="J17" t="n">
+        <v>18.73477633477634</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7.948051948051948</v>
+      </c>
+      <c r="L17" t="n">
+        <v>238</v>
+      </c>
+      <c r="M17" t="n">
+        <v>612</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.354575163398693</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6.915032679738562</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Netclan20241033</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/voter-profile-analysis-and-search-application-for-targeted-campaign-engagement-using-government-voter-data/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Voter Profile Analysis and Search Application for Targeted Campaign Engagement Using Government Voter Data</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>79</v>
+      </c>
+      <c r="E18" t="n">
+        <v>17</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6458333266059029</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.09467455611965034</v>
+      </c>
+      <c r="H18" t="n">
+        <v>14.28169014084507</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50.69033530571993</v>
+      </c>
+      <c r="J18" t="n">
+        <v>25.988810178626</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14.28169014084507</v>
+      </c>
+      <c r="L18" t="n">
+        <v>514</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1014</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.710059171597633</v>
+      </c>
+      <c r="O18" t="n">
+        <v>23</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7.814595660749507</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Netclan20241034</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/bert-based-classification-of-individuals-and-organizations-into-two-categories-using-natural-language-processing/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BERT-Based Classification of Individuals and Organizations into Two Categories Using Natural Language Processing</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2727272479338866</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.05392156836312956</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="I19" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="J19" t="n">
+        <v>16.59733333333333</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="L19" t="n">
+        <v>68</v>
+      </c>
+      <c r="M19" t="n">
+        <v>204</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6.941176470588236</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Netclan20241035</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/comprehensive-analysis-of-solana-and-ethereum-contributors-using-github-api-with-comparative-study-of-1000-random-github-profiles/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Comprehensive Analysis of Solana and Ethereum Contributors Using GitHub API with Comparative Study of 1000 Random GitHub Profiles</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>47</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.593220328928469</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1010273970872819</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.61818181818182</v>
+      </c>
+      <c r="I20" t="n">
+        <v>40.41095890410959</v>
+      </c>
+      <c r="J20" t="n">
+        <v>20.41165628891656</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10.61818181818182</v>
+      </c>
+      <c r="L20" t="n">
+        <v>236</v>
+      </c>
+      <c r="M20" t="n">
+        <v>584</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.517123287671233</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>7.260273972602739</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Netclan20241036</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/powerbi-rest-api-fetching-dataflow-and-refresh-schedules-with-semantic-models/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PowerBI REST API – Fetching Dataflow and Refresh Schedules with semantic models</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>36</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4693877455226991</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1121281461965031</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>39.35926773455378</v>
+      </c>
+      <c r="J21" t="n">
+        <v>19.54370709382151</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>437</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.432494279176201</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7.038901601830664</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Netclan20241037</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/automated-job-data-import-and-management-solution-for-enhanced-efficiency/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Automated Job Data Import and Management Solution for Enhanced Efficiency</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5384614970414233</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.06435643532496814</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7.481481481481482</v>
+      </c>
+      <c r="I22" t="n">
+        <v>32.17821782178218</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15.86387972130546</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7.481481481481482</v>
+      </c>
+      <c r="L22" t="n">
+        <v>65</v>
+      </c>
+      <c r="M22" t="n">
+        <v>202</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.287128712871287</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6.866336633663367</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Netclan20241038</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-analytics-and-optimization-solution-for-enhancing-renewable-energy-efficiency/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Data Analytics and Optimization Solution for Enhancing Renewable Energy Efficiency</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5714285306122479</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.06422018319165054</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8.074074074074074</v>
+      </c>
+      <c r="I23" t="n">
+        <v>48.62385321100918</v>
+      </c>
+      <c r="J23" t="n">
+        <v>22.6791709140333</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8.074074074074074</v>
+      </c>
+      <c r="L23" t="n">
+        <v>106</v>
+      </c>
+      <c r="M23" t="n">
+        <v>218</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.605504587155963</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>7.522935779816514</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Netclan20241039</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/time-series-analysis-and-trend-forecasting-solution-for-predicting-news-trends/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Time Series Analysis and Trend Forecasting Solution for Predicting News Trends</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5714285306122479</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.06763284991481715</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7.961538461538462</v>
+      </c>
+      <c r="I24" t="n">
+        <v>36.71497584541063</v>
+      </c>
+      <c r="J24" t="n">
+        <v>17.87060572277964</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7.961538461538462</v>
+      </c>
+      <c r="L24" t="n">
+        <v>76</v>
+      </c>
+      <c r="M24" t="n">
+        <v>207</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.352657004830918</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7.222222222222222</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Netclan20241040</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/advanced-data-visualization-solutions-for-monitoring-key-business-metrics-with-integrated-interactive-dashboards/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Advanced Data Visualization Solutions for Monitoring Key Business Metrics with Integrated, Interactive Dashboards</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>15</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7647058373702448</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.08292682886377156</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7.592592592592593</v>
+      </c>
+      <c r="I25" t="n">
+        <v>40</v>
+      </c>
+      <c r="J25" t="n">
+        <v>19.03703703703704</v>
+      </c>
+      <c r="K25" t="n">
+        <v>7.592592592592593</v>
+      </c>
+      <c r="L25" t="n">
+        <v>82</v>
+      </c>
+      <c r="M25" t="n">
+        <v>205</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.482926829268293</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7.556097560975609</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Netclan20241041</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/advanced-patient-data-analysis-solution-for-trend-identification-and-improved-healthcare-outcome/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Advanced Patient Data Analysis Solution for Trend Identification and Improved Healthcare Outcome</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>17</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.6999999650000017</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.09569377944644125</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7.74074074074074</v>
+      </c>
+      <c r="I26" t="n">
+        <v>42.10526315789473</v>
+      </c>
+      <c r="J26" t="n">
+        <v>19.93840155945419</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7.74074074074074</v>
+      </c>
+      <c r="L26" t="n">
+        <v>88</v>
+      </c>
+      <c r="M26" t="n">
+        <v>209</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.502392344497608</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7.521531100478469</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Netclan20241042</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/anomaly-detection-and-analysis-for-enhanced-data-integrity-and-user-experience-on-bright-datas-website/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Anomaly Detection and Analysis for Enhanced Data Integrity and User Experience on Bright Data’s Website</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>13</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1818181735537194</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.09565217349716447</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7.419354838709677</v>
+      </c>
+      <c r="I27" t="n">
+        <v>42.60869565217391</v>
+      </c>
+      <c r="J27" t="n">
+        <v>20.01122019635344</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7.419354838709677</v>
+      </c>
+      <c r="L27" t="n">
+        <v>98</v>
+      </c>
+      <c r="M27" t="n">
+        <v>230</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.447826086956522</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>7.143478260869565</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Netclan20241043</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/building-custom-tflite-models-and-benchmarking-on-voxl2-chips/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Building Custom TFLite Models and Benchmarking on VOXL2 Chips</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>15</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5789473379501401</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03869653759939606</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10.4468085106383</v>
+      </c>
+      <c r="I28" t="n">
+        <v>34.62321792260693</v>
+      </c>
+      <c r="J28" t="n">
+        <v>18.02801057329809</v>
+      </c>
+      <c r="K28" t="n">
+        <v>10.4468085106383</v>
+      </c>
+      <c r="L28" t="n">
+        <v>170</v>
+      </c>
+      <c r="M28" t="n">
+        <v>491</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.283095723014257</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6.938900203665987</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Netclan20241044</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/sports-prediction-model-for-multiple-sports-leagues/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Sports Prediction Model for Multiple Sports Leagues</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>22</v>
+      </c>
+      <c r="E29" t="n">
+        <v>11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3333333232323236</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.06226415082591669</v>
+      </c>
+      <c r="H29" t="n">
+        <v>12.61904761904762</v>
+      </c>
+      <c r="I29" t="n">
+        <v>36.22641509433962</v>
+      </c>
+      <c r="J29" t="n">
+        <v>19.5381850853549</v>
+      </c>
+      <c r="K29" t="n">
+        <v>12.61904761904762</v>
+      </c>
+      <c r="L29" t="n">
+        <v>192</v>
+      </c>
+      <c r="M29" t="n">
+        <v>530</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.281132075471698</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Netclan20241045</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/efficient-coach-allocation-system-for-sports-coaching-organization/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Efficient Coach Allocation System for Sports Coaching Organization</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>15</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.3636363471074388</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.04339250484537967</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9.566037735849056</v>
+      </c>
+      <c r="I30" t="n">
+        <v>36.8836291913215</v>
+      </c>
+      <c r="J30" t="n">
+        <v>18.57986677086822</v>
+      </c>
+      <c r="K30" t="n">
+        <v>9.566037735849056</v>
+      </c>
+      <c r="L30" t="n">
+        <v>187</v>
+      </c>
+      <c r="M30" t="n">
+        <v>507</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.355029585798817</v>
+      </c>
+      <c r="O30" t="n">
+        <v>7</v>
+      </c>
+      <c r="P30" t="n">
+        <v>7.246548323471401</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Netclan20241046</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-studio-dashboard-with-a-data-pipeline-tool-synced-with-podio-using-custom-webhooks-and-google-cloud-function-2/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Data Studio Dashboard with a data pipeline tool synced with Podio using custom Webhooks and Google Cloud Function</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>27</v>
+      </c>
+      <c r="E31" t="n">
+        <v>13</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3499999912500003</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.07407407393689987</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>33.14814814814815</v>
+      </c>
+      <c r="J31" t="n">
+        <v>17.57925925925926</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>179</v>
+      </c>
+      <c r="M31" t="n">
+        <v>540</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.309259259259259</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7.087037037037037</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Netclan20241047</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-driven-backend-for-audio-to-text-conversion-and-analytical-assessment-in-pharmaceutical-practice/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AI-Driven Backend for Audio-to-Text Conversion and Analytical Assessment in Pharmaceutical Practice</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>21</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.3124999902343753</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.07158836673022737</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="I32" t="n">
+        <v>40.26845637583892</v>
+      </c>
+      <c r="J32" t="n">
+        <v>19.68338255033557</v>
+      </c>
+      <c r="K32" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L32" t="n">
+        <v>180</v>
+      </c>
+      <c r="M32" t="n">
+        <v>447</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.449664429530201</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>7.190156599552573</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Netclan20241048</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/cloud-based-web-application-for-financial-data-processing-and-visualization-of-sp-500-metrics/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Cloud-Based Web Application for Financial Data Processing and Visualization of S&amp;P 500 Metrics</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>60</v>
+      </c>
+      <c r="E33" t="n">
+        <v>19</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.518987335202692</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1297208536457786</v>
+      </c>
+      <c r="H33" t="n">
+        <v>14.85365853658537</v>
+      </c>
+      <c r="I33" t="n">
+        <v>42.20032840722496</v>
+      </c>
+      <c r="J33" t="n">
+        <v>22.82159477752413</v>
+      </c>
+      <c r="K33" t="n">
+        <v>14.85365853658537</v>
+      </c>
+      <c r="L33" t="n">
+        <v>257</v>
+      </c>
+      <c r="M33" t="n">
+        <v>609</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.558292282430214</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>7.604269293924466</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Netclan20241049</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/department-wise-kpi-tracking-dashboard-with-technician-performance-analysis-for-atoz-dependable-service/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Department-Wise KPI Tracking Dashboard with Technician Performance Analysis for AtoZ Dependable Service</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5714285578231296</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.05490196071254646</v>
+      </c>
+      <c r="H34" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="I34" t="n">
+        <v>35.94771241830065</v>
+      </c>
+      <c r="J34" t="n">
+        <v>18.87908496732026</v>
+      </c>
+      <c r="K34" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="L34" t="n">
+        <v>275</v>
+      </c>
+      <c r="M34" t="n">
+        <v>765</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.358169934640523</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>7.122875816993464</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Netclan20241050</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/steps-to-convert-a-node-js-api-to-python-for-aws-lambda-deployment/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Steps to Convert a Node.js API to Python for AWS Lambda Deployment</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.3793103317479196</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.07923497246110664</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10.76470588235294</v>
+      </c>
+      <c r="I35" t="n">
+        <v>37.15846994535519</v>
+      </c>
+      <c r="J35" t="n">
+        <v>19.16927033108325</v>
+      </c>
+      <c r="K35" t="n">
+        <v>10.76470588235294</v>
+      </c>
+      <c r="L35" t="n">
+        <v>136</v>
+      </c>
+      <c r="M35" t="n">
+        <v>366</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.346994535519126</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>7.021857923497268</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Netclan20241051</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/building-an-analytics-dashboard-with-a-pdf-parsing-pipeline-for-data-extraction/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Building an Analytics Dashboard with a PDF Parsing Pipeline for Data Extraction</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>39</v>
+      </c>
+      <c r="E36" t="n">
+        <v>32</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.09859154790716131</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.06283185835147623</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7.847222222222222</v>
+      </c>
+      <c r="I36" t="n">
+        <v>37.07964601769911</v>
+      </c>
+      <c r="J36" t="n">
+        <v>17.97074729596853</v>
+      </c>
+      <c r="K36" t="n">
+        <v>7.847222222222222</v>
+      </c>
+      <c r="L36" t="n">
+        <v>419</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1130</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.394690265486726</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>7.186725663716814</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Netclan20241052</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/building-a-real-time-log-file-visualization-dashboard-in-kibana/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Building a Real-Time Log File Visualization Dashboard in Kibana</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>24</v>
+      </c>
+      <c r="E37" t="n">
+        <v>27</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.05882352825836219</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.07956318240317756</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8.113924050632912</v>
+      </c>
+      <c r="I37" t="n">
+        <v>40.87363494539781</v>
+      </c>
+      <c r="J37" t="n">
+        <v>19.59502359841229</v>
+      </c>
+      <c r="K37" t="n">
+        <v>8.113924050632912</v>
+      </c>
+      <c r="L37" t="n">
+        <v>262</v>
+      </c>
+      <c r="M37" t="n">
+        <v>641</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.441497659906396</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>7.185647425897036</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Netclan20241053</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/analyzing-the-impact-of-female-ceo-appointments-on-company-stock-prices/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Analyzing the Impact of Female CEO Appointments on Company Stock Prices</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>17</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.3076922958579886</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.04406779653547831</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8.805970149253731</v>
+      </c>
+      <c r="I38" t="n">
+        <v>50.84745762711864</v>
+      </c>
+      <c r="J38" t="n">
+        <v>23.86137111054895</v>
+      </c>
+      <c r="K38" t="n">
+        <v>8.805970149253731</v>
+      </c>
+      <c r="L38" t="n">
+        <v>300</v>
+      </c>
+      <c r="M38" t="n">
+        <v>590</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.64406779661017</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6</v>
+      </c>
+      <c r="P38" t="n">
+        <v>7.691525423728813</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Netclan20241054</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-chatbot-using-llm-langchain-llama/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>AI Chatbot using LLM, Langchain, LLama</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>46</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.6727272604958681</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.07925072034690098</v>
+      </c>
+      <c r="H39" t="n">
+        <v>14.16326530612245</v>
+      </c>
+      <c r="I39" t="n">
+        <v>43.22766570605187</v>
+      </c>
+      <c r="J39" t="n">
+        <v>22.95637240486973</v>
+      </c>
+      <c r="K39" t="n">
+        <v>14.16326530612245</v>
+      </c>
+      <c r="L39" t="n">
+        <v>300</v>
+      </c>
+      <c r="M39" t="n">
+        <v>694</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.536023054755043</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>7.328530259365994</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Netclan20241055</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/healthcare-ai-chatbot-using-llama-llm-langchain/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Healthcare AI ChatBot using LLAMA, LLM, Langchain</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>72</v>
+      </c>
+      <c r="E40" t="n">
+        <v>14</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.6744185968090861</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.09267241369324093</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6.874074074074074</v>
+      </c>
+      <c r="I40" t="n">
+        <v>26.40086206896552</v>
+      </c>
+      <c r="J40" t="n">
+        <v>13.30997445721584</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6.874074074074074</v>
+      </c>
+      <c r="L40" t="n">
+        <v>245</v>
+      </c>
+      <c r="M40" t="n">
+        <v>928</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.155172413793104</v>
+      </c>
+      <c r="O40" t="n">
+        <v>30</v>
+      </c>
+      <c r="P40" t="n">
+        <v>6.489224137931035</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Netclan20241056</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-bot-audio-to-audio/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AI Bot Audio to audio</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9999998333333611</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01986754960308759</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6.291666666666667</v>
+      </c>
+      <c r="I41" t="n">
+        <v>26.15894039735099</v>
+      </c>
+      <c r="J41" t="n">
+        <v>12.98024282560706</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6.291666666666667</v>
+      </c>
+      <c r="L41" t="n">
+        <v>79</v>
+      </c>
+      <c r="M41" t="n">
+        <v>302</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.135761589403974</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>6.344370860927152</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Netclan20241057</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/recommendation-engine-for-insurance-sector-to-expand-business-in-the-rural-area/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Recommendation Engine for Insurance Sector to Expand Business in the Rural Area</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>14</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.3333333174603182</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.05630026794557569</v>
+      </c>
+      <c r="H42" t="n">
+        <v>17.76190476190476</v>
+      </c>
+      <c r="I42" t="n">
+        <v>39.14209115281501</v>
+      </c>
+      <c r="J42" t="n">
+        <v>22.76159836588791</v>
+      </c>
+      <c r="K42" t="n">
+        <v>17.76190476190476</v>
+      </c>
+      <c r="L42" t="n">
+        <v>146</v>
+      </c>
+      <c r="M42" t="n">
+        <v>373</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.412868632707775</v>
+      </c>
+      <c r="O42" t="n">
+        <v>4</v>
+      </c>
+      <c r="P42" t="n">
+        <v>7.10455764075067</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Netclan20241058</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-from-crm-via-zapier-to-google-sheets-dynamic-to-powerbi/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Data from CRM via Zapier to Google Sheets (Dynamic) to PowerBI</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>12</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5999999600000027</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.07692307652859962</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10.26315789473684</v>
+      </c>
+      <c r="I43" t="n">
+        <v>25.64102564102564</v>
+      </c>
+      <c r="J43" t="n">
+        <v>14.361673414305</v>
+      </c>
+      <c r="K43" t="n">
+        <v>10.26315789473684</v>
+      </c>
+      <c r="L43" t="n">
+        <v>50</v>
+      </c>
+      <c r="M43" t="n">
+        <v>195</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.066666666666667</v>
+      </c>
+      <c r="O43" t="n">
+        <v>8</v>
+      </c>
+      <c r="P43" t="n">
+        <v>6.435897435897436</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Netclan20241059</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-warehouse-to-google-data-studio-looker-dashboard/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Data Warehouse to Google Data Studio (Looker) Dashboard</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5555554938271674</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03947368403739612</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7.354838709677419</v>
+      </c>
+      <c r="I44" t="n">
+        <v>27.63157894736842</v>
+      </c>
+      <c r="J44" t="n">
+        <v>13.99456706281834</v>
+      </c>
+      <c r="K44" t="n">
+        <v>7.354838709677419</v>
+      </c>
+      <c r="L44" t="n">
+        <v>63</v>
+      </c>
+      <c r="M44" t="n">
+        <v>228</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.171052631578947</v>
+      </c>
+      <c r="O44" t="n">
+        <v>13</v>
+      </c>
+      <c r="P44" t="n">
+        <v>6.798245614035087</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Netclan20241060</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/crm-monday-com-via-zapier-to-power-bi-dashboard/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CRM, Monday.com via Zapier to Power BI Dashboard</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>11</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.4666666355555577</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.07812499959309896</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7.384615384615385</v>
+      </c>
+      <c r="I45" t="n">
+        <v>25</v>
+      </c>
+      <c r="J45" t="n">
+        <v>12.95384615384616</v>
+      </c>
+      <c r="K45" t="n">
+        <v>7.384615384615385</v>
+      </c>
+      <c r="L45" t="n">
+        <v>48</v>
+      </c>
+      <c r="M45" t="n">
+        <v>192</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.010416666666667</v>
+      </c>
+      <c r="O45" t="n">
+        <v>16</v>
+      </c>
+      <c r="P45" t="n">
+        <v>6.34375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Netclan20241061</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/monday-com-to-kpi-dashboard-to-manage-view-and-generate-insights-from-the-crm-data/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Monday.com to KPI Dashboard to manage, view, and generate insights from the CRM data</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>16</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.333333319444445</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.1012658223575282</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5.266666666666667</v>
+      </c>
+      <c r="I46" t="n">
+        <v>25.31645569620253</v>
+      </c>
+      <c r="J46" t="n">
+        <v>12.23324894514768</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5.266666666666667</v>
+      </c>
+      <c r="L46" t="n">
+        <v>60</v>
+      </c>
+      <c r="M46" t="n">
+        <v>237</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.016877637130801</v>
+      </c>
+      <c r="O46" t="n">
+        <v>6</v>
+      </c>
+      <c r="P46" t="n">
+        <v>6.405063291139241</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Netclan20241062</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-management-for-a-political-saas-application/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Data Management for a Political SaaS Application</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>23</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.3939393820018369</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0498489425228868</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8.710526315789474</v>
+      </c>
+      <c r="I47" t="n">
+        <v>32.4773413897281</v>
+      </c>
+      <c r="J47" t="n">
+        <v>16.47514708220703</v>
+      </c>
+      <c r="K47" t="n">
+        <v>8.710526315789474</v>
+      </c>
+      <c r="L47" t="n">
+        <v>215</v>
+      </c>
+      <c r="M47" t="n">
+        <v>662</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.16012084592145</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4</v>
+      </c>
+      <c r="P47" t="n">
+        <v>6.631419939577039</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Netclan20241063</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/google-lsa-ads-google-local-service-ads-etl-tools-and-dashboards/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Google LSA Ads (Google Local Service Ads) – ETL tools and Dashboards</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>11</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.09999999500000024</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.06825938543256183</v>
+      </c>
+      <c r="H48" t="n">
+        <v>16.27777777777778</v>
+      </c>
+      <c r="I48" t="n">
+        <v>28.66894197952218</v>
+      </c>
+      <c r="J48" t="n">
+        <v>17.97868790291998</v>
+      </c>
+      <c r="K48" t="n">
+        <v>16.27777777777778</v>
+      </c>
+      <c r="L48" t="n">
+        <v>84</v>
+      </c>
+      <c r="M48" t="n">
+        <v>293</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.160409556313993</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>6.757679180887372</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Netclan20241064</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ad-networks-marketing-campaign-data-dashboard-in-looker-google-data-studio/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ad Networks Marketing Campaign Data Dashboard in Looker (Google Data Studio)</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>15</v>
+      </c>
+      <c r="E49" t="n">
+        <v>11</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.1538461479289943</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.06088992959978939</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32.84615384615385</v>
+      </c>
+      <c r="I49" t="n">
+        <v>30.44496487119438</v>
+      </c>
+      <c r="J49" t="n">
+        <v>25.31644748693929</v>
+      </c>
+      <c r="K49" t="n">
+        <v>32.84615384615385</v>
+      </c>
+      <c r="L49" t="n">
+        <v>130</v>
+      </c>
+      <c r="M49" t="n">
+        <v>427</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.194379391100703</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>6.932084309133489</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Netclan20241065</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/analytical-solution-for-a-tech-firm/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Analytical solution for a tech firm</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>12</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.07692307396449716</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.1192660544987796</v>
+      </c>
+      <c r="H50" t="n">
+        <v>16.76923076923077</v>
+      </c>
+      <c r="I50" t="n">
+        <v>30.73394495412844</v>
+      </c>
+      <c r="J50" t="n">
+        <v>19.00127028934368</v>
+      </c>
+      <c r="K50" t="n">
+        <v>16.76923076923077</v>
+      </c>
+      <c r="L50" t="n">
+        <v>67</v>
+      </c>
+      <c r="M50" t="n">
+        <v>218</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.201834862385321</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" t="n">
+        <v>6.779816513761468</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Netclan20241066</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-solution-for-a-technology-information-and-internet-firm/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>AI solution for a Technology, Information and Internet firm</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.2307692130177529</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.06341463383700179</v>
+      </c>
+      <c r="H51" t="n">
+        <v>18.63636363636364</v>
+      </c>
+      <c r="I51" t="n">
+        <v>30.73170731707317</v>
+      </c>
+      <c r="J51" t="n">
+        <v>19.74722838137473</v>
+      </c>
+      <c r="K51" t="n">
+        <v>18.63636363636364</v>
+      </c>
+      <c r="L51" t="n">
+        <v>63</v>
+      </c>
+      <c r="M51" t="n">
+        <v>205</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.224390243902439</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>6.702439024390244</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Netclan20241067</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-and-nlp-based-solutions-to-automate-data-discovery-for-venture-capital-and-private-equity-principals/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>AI and NLP-based Solutions to Automate Data Discovery for Venture Capital and Private Equity Principals</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1999999866666676</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04032258053676726</v>
+      </c>
+      <c r="H52" t="n">
+        <v>11.27272727272727</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27.1505376344086</v>
+      </c>
+      <c r="J52" t="n">
+        <v>15.36930596285435</v>
+      </c>
+      <c r="K52" t="n">
+        <v>11.27272727272727</v>
+      </c>
+      <c r="L52" t="n">
+        <v>101</v>
+      </c>
+      <c r="M52" t="n">
+        <v>372</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.10752688172043</v>
+      </c>
+      <c r="O52" t="n">
+        <v>29</v>
+      </c>
+      <c r="P52" t="n">
+        <v>6.755376344086022</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Netclan20241068</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/an-etl-solution-for-an-internet-publishing-firm/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>An ETL solution for an Internet Publishing firm</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>12</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.4117646816609011</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.05723905704633314</v>
+      </c>
+      <c r="H53" t="n">
+        <v>12.375</v>
+      </c>
+      <c r="I53" t="n">
+        <v>26.93602693602693</v>
+      </c>
+      <c r="J53" t="n">
+        <v>15.72441077441077</v>
+      </c>
+      <c r="K53" t="n">
+        <v>12.375</v>
+      </c>
+      <c r="L53" t="n">
+        <v>80</v>
+      </c>
+      <c r="M53" t="n">
+        <v>297</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.127946127946128</v>
+      </c>
+      <c r="O53" t="n">
+        <v>18</v>
+      </c>
+      <c r="P53" t="n">
+        <v>6.28956228956229</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Netclan20241069</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-based-algorithmic-trading-bot-for-forex/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>AI-Based Algorithmic Trading Bot for Forex</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.4117646816609011</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.05501618105172757</v>
+      </c>
+      <c r="H54" t="n">
+        <v>9.65625</v>
+      </c>
+      <c r="I54" t="n">
+        <v>23.62459546925566</v>
+      </c>
+      <c r="J54" t="n">
+        <v>13.31233818770227</v>
+      </c>
+      <c r="K54" t="n">
+        <v>9.65625</v>
+      </c>
+      <c r="L54" t="n">
+        <v>73</v>
+      </c>
+      <c r="M54" t="n">
+        <v>309</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.032362459546925</v>
+      </c>
+      <c r="O54" t="n">
+        <v>26</v>
+      </c>
+      <c r="P54" t="n">
+        <v>6.17799352750809</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Netclan20241070</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/equity-waterfalls-model-based-saas-application-for-real-estate-sector/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Equity Waterfalls Model-Based SaaS Application for Real Estate Sector</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.2499999687500039</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03418803404193148</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I55" t="n">
+        <v>36.32478632478632</v>
+      </c>
+      <c r="J55" t="n">
+        <v>17.64991452991453</v>
+      </c>
+      <c r="K55" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L55" t="n">
+        <v>85</v>
+      </c>
+      <c r="M55" t="n">
+        <v>234</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.217948717948718</v>
+      </c>
+      <c r="O55" t="n">
+        <v>8</v>
+      </c>
+      <c r="P55" t="n">
+        <v>6.799145299145299</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Netclan20241071</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-solutions-for-foreign-exchange-an-automated-algo-trading-tool/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>AI Solutions for Foreign Exchange – An Automated Algo Trading Tool</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" t="n">
+        <v>7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.06666666222222252</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.06756756726320916</v>
+      </c>
+      <c r="H56" t="n">
+        <v>13.875</v>
+      </c>
+      <c r="I56" t="n">
+        <v>32.43243243243244</v>
+      </c>
+      <c r="J56" t="n">
+        <v>18.52297297297298</v>
+      </c>
+      <c r="K56" t="n">
+        <v>13.875</v>
+      </c>
+      <c r="L56" t="n">
+        <v>72</v>
+      </c>
+      <c r="M56" t="n">
+        <v>222</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.171171171171171</v>
+      </c>
+      <c r="O56" t="n">
+        <v>4</v>
+      </c>
+      <c r="P56" t="n">
+        <v>6.954954954954955</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Netclan20241072</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-agent-development-and-deployment-in-jina-ai/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>AI agent development and Deployment in Jina AI</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.05263157617728546</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.1366906464986284</v>
+      </c>
+      <c r="H57" t="n">
+        <v>17.375</v>
+      </c>
+      <c r="I57" t="n">
+        <v>35.97122302158273</v>
+      </c>
+      <c r="J57" t="n">
+        <v>21.33848920863309</v>
+      </c>
+      <c r="K57" t="n">
+        <v>17.375</v>
+      </c>
+      <c r="L57" t="n">
+        <v>50</v>
+      </c>
+      <c r="M57" t="n">
+        <v>139</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2.359712230215827</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" t="n">
+        <v>7.100719424460432</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Netclan20241073</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/golden-record-a-knowledge-graph-database-approach-to-unfold-discovery-using-neo4j/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Golden Record – A knowledge graph database approach to unfold discovery using Neo4j</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>14</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.399999980000001</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.08583690950284588</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10.59090909090909</v>
+      </c>
+      <c r="I58" t="n">
+        <v>30.47210300429185</v>
+      </c>
+      <c r="J58" t="n">
+        <v>16.42520483808038</v>
+      </c>
+      <c r="K58" t="n">
+        <v>10.59090909090909</v>
+      </c>
+      <c r="L58" t="n">
+        <v>71</v>
+      </c>
+      <c r="M58" t="n">
+        <v>233</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.188841201716738</v>
+      </c>
+      <c r="O58" t="n">
+        <v>12</v>
+      </c>
+      <c r="P58" t="n">
+        <v>6.905579399141631</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Netclan20241074</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-trading-automation/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Advanced AI for Trading Automation</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>11</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.3749999765625014</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.07766990253558299</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8.956521739130435</v>
+      </c>
+      <c r="I59" t="n">
+        <v>32.5242718446602</v>
+      </c>
+      <c r="J59" t="n">
+        <v>16.59231743351625</v>
+      </c>
+      <c r="K59" t="n">
+        <v>8.956521739130435</v>
+      </c>
+      <c r="L59" t="n">
+        <v>67</v>
+      </c>
+      <c r="M59" t="n">
+        <v>206</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.218446601941748</v>
+      </c>
+      <c r="O59" t="n">
+        <v>9</v>
+      </c>
+      <c r="P59" t="n">
+        <v>6.674757281553398</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Netclan20241075</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/create-a-knowledge-graph-to-provide-real-time-analytics-recommendations-and-a-single-source-of-truth/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Create a Knowledge Graph to Provide Real-time Analytics, Recommendations, and a Single Source of Truth</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>4</v>
+      </c>
+      <c r="E60" t="n">
+        <v>7</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.2727272479338866</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0852713171684394</v>
+      </c>
+      <c r="H60" t="n">
+        <v>11.72727272727273</v>
+      </c>
+      <c r="I60" t="n">
+        <v>37.98449612403101</v>
+      </c>
+      <c r="J60" t="n">
+        <v>19.8847075405215</v>
+      </c>
+      <c r="K60" t="n">
+        <v>11.72727272727273</v>
+      </c>
+      <c r="L60" t="n">
+        <v>49</v>
+      </c>
+      <c r="M60" t="n">
+        <v>129</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>7.023255813953488</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Netclan20241076</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-thermal-person-detection/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Advanced AI for Thermal Person Detection</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.199999960000008</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.06578947281855957</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10.85714285714286</v>
+      </c>
+      <c r="I61" t="n">
+        <v>34.21052631578947</v>
+      </c>
+      <c r="J61" t="n">
+        <v>18.02706766917293</v>
+      </c>
+      <c r="K61" t="n">
+        <v>10.85714285714286</v>
+      </c>
+      <c r="L61" t="n">
+        <v>26</v>
+      </c>
+      <c r="M61" t="n">
+        <v>76</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.263157894736842</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2</v>
+      </c>
+      <c r="P61" t="n">
+        <v>7.039473684210527</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Netclan20241077</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-road-cam-threat-detection/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Advanced AI for Road Cam Threat Detection</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.4545454132231443</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.09999999909090911</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+      <c r="I62" t="n">
+        <v>34.54545454545455</v>
+      </c>
+      <c r="J62" t="n">
+        <v>17.81818181818182</v>
+      </c>
+      <c r="K62" t="n">
+        <v>10</v>
+      </c>
+      <c r="L62" t="n">
+        <v>38</v>
+      </c>
+      <c r="M62" t="n">
+        <v>110</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2.327272727272727</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>7.30909090909091</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Netclan20241078</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/advanced-ai-for-pedestrian-crossing-safety/</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Advanced AI for Pedestrian Crossing Safety</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.08130081234714787</v>
+      </c>
+      <c r="H63" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="I63" t="n">
+        <v>32.52032520325203</v>
+      </c>
+      <c r="J63" t="n">
+        <v>18.47479674796748</v>
+      </c>
+      <c r="K63" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="L63" t="n">
+        <v>40</v>
+      </c>
+      <c r="M63" t="n">
+        <v>123</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2.284552845528455</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3</v>
+      </c>
+      <c r="P63" t="n">
+        <v>7.162601626016261</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Netclan20241079</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/handgun-detection-using-yolo/</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Advanced AI for Handgun Detection</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>4</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.333333277777787</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.06666666592592593</v>
+      </c>
+      <c r="H64" t="n">
+        <v>12.85714285714286</v>
+      </c>
+      <c r="I64" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="J64" t="n">
+        <v>20.6984126984127</v>
+      </c>
+      <c r="K64" t="n">
+        <v>12.85714285714286</v>
+      </c>
+      <c r="L64" t="n">
+        <v>35</v>
+      </c>
+      <c r="M64" t="n">
+        <v>90</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2.388888888888889</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2</v>
+      </c>
+      <c r="P64" t="n">
+        <v>7.455555555555556</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Netclan20241080</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/using-graph-technology-to-create-single-customer-view/</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Using Graph Technology to Create Single Customer View.</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.4285713979591859</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.1076923068639053</v>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+      <c r="I65" t="n">
+        <v>40.76923076923077</v>
+      </c>
+      <c r="J65" t="n">
+        <v>20.30769230769231</v>
+      </c>
+      <c r="K65" t="n">
+        <v>10</v>
+      </c>
+      <c r="L65" t="n">
+        <v>53</v>
+      </c>
+      <c r="M65" t="n">
+        <v>130</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.492307692307692</v>
+      </c>
+      <c r="O65" t="n">
+        <v>4</v>
+      </c>
+      <c r="P65" t="n">
+        <v>7.376923076923077</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Netclan20241081</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/car-detection-in-satellite-images/</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Car Detection in Satellite Images</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>11</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.6923076390532585</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.06018518490655007</v>
+      </c>
+      <c r="H66" t="n">
+        <v>9.391304347826088</v>
+      </c>
+      <c r="I66" t="n">
+        <v>27.31481481481481</v>
+      </c>
+      <c r="J66" t="n">
+        <v>14.68244766505636</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9.391304347826088</v>
+      </c>
+      <c r="L66" t="n">
+        <v>59</v>
+      </c>
+      <c r="M66" t="n">
+        <v>216</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.143518518518519</v>
+      </c>
+      <c r="O66" t="n">
+        <v>11</v>
+      </c>
+      <c r="P66" t="n">
+        <v>6.708333333333333</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Netclan20241082</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/building-a-physics-informed-neural-network-for-circuit-evaluation/</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Building a Physics-Informed Neural Network for Circuit Evaluation</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>13</v>
+      </c>
+      <c r="E67" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.2999999850000007</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.08130081267763897</v>
+      </c>
+      <c r="H67" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="I67" t="n">
+        <v>34.14634146341464</v>
+      </c>
+      <c r="J67" t="n">
+        <v>17.59453658536586</v>
+      </c>
+      <c r="K67" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="L67" t="n">
+        <v>84</v>
+      </c>
+      <c r="M67" t="n">
+        <v>246</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2.276422764227642</v>
+      </c>
+      <c r="O67" t="n">
+        <v>15</v>
+      </c>
+      <c r="P67" t="n">
+        <v>7.150406504065041</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Netclan20241083</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/connecting-mongodb-database-to-power-bi-dashboard-dashboard-automation/</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Connecting MongoDB Database to Power BI Dashboard: Dashboard Automation</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.06666666222222252</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.05454545434710744</v>
+      </c>
+      <c r="H68" t="n">
+        <v>13.09523809523809</v>
+      </c>
+      <c r="I68" t="n">
+        <v>33.81818181818182</v>
+      </c>
+      <c r="J68" t="n">
+        <v>18.76536796536797</v>
+      </c>
+      <c r="K68" t="n">
+        <v>13.09523809523809</v>
+      </c>
+      <c r="L68" t="n">
+        <v>93</v>
+      </c>
+      <c r="M68" t="n">
+        <v>275</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2.214545454545454</v>
+      </c>
+      <c r="O68" t="n">
+        <v>12</v>
+      </c>
+      <c r="P68" t="n">
+        <v>6.523636363636363</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Netclan20241084</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-transformation/</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Data Transformation</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20</v>
+      </c>
+      <c r="E69" t="n">
+        <v>13</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.2121212056932968</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.1170212761807756</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10.07142857142857</v>
+      </c>
+      <c r="I69" t="n">
+        <v>29.78723404255319</v>
+      </c>
+      <c r="J69" t="n">
+        <v>15.94346504559271</v>
+      </c>
+      <c r="K69" t="n">
+        <v>10.07142857142857</v>
+      </c>
+      <c r="L69" t="n">
+        <v>84</v>
+      </c>
+      <c r="M69" t="n">
+        <v>282</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2.177304964539007</v>
+      </c>
+      <c r="O69" t="n">
+        <v>12</v>
+      </c>
+      <c r="P69" t="n">
+        <v>6.429078014184397</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Netclan20241085</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/e-commerce-store-analysis-purchase-behavior-ad-spend-conversion-traffic-etc/</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>E-commerce Store Analysis – Purchase Behavior, Ad Spend, Conversion, Traffic, etc…</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>7</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.7499999062500118</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0336134452369183</v>
+      </c>
+      <c r="H70" t="n">
+        <v>11.33333333333333</v>
+      </c>
+      <c r="I70" t="n">
+        <v>35.29411764705883</v>
+      </c>
+      <c r="J70" t="n">
+        <v>18.65098039215686</v>
+      </c>
+      <c r="K70" t="n">
+        <v>11.33333333333333</v>
+      </c>
+      <c r="L70" t="n">
+        <v>84</v>
+      </c>
+      <c r="M70" t="n">
+        <v>238</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.277310924369748</v>
+      </c>
+      <c r="O70" t="n">
+        <v>14</v>
+      </c>
+      <c r="P70" t="n">
+        <v>6.899159663865547</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Netclan20241086</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/kpi-dashboard-for-accountants/</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>KPI Dashboard for Accountants</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>11</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9999999090909174</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.05499999972500001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="I71" t="n">
+        <v>30</v>
+      </c>
+      <c r="J71" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="K71" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="L71" t="n">
+        <v>60</v>
+      </c>
+      <c r="M71" t="n">
+        <v>200</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.115</v>
+      </c>
+      <c r="O71" t="n">
+        <v>6</v>
+      </c>
+      <c r="P71" t="n">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Netclan20241087</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/return-on-advertising-spend-dashboard-marketing-automation-and-analytics-using-etl-and-dashboard/</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Return on Advertising Spend Dashboard: Marketing Automation and Analytics using ETL and Dashboard</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>25</v>
+      </c>
+      <c r="E72" t="n">
+        <v>7</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.5624999824218756</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.05786618434382245</v>
+      </c>
+      <c r="H72" t="n">
+        <v>13.825</v>
+      </c>
+      <c r="I72" t="n">
+        <v>36.34719710669078</v>
+      </c>
+      <c r="J72" t="n">
+        <v>20.06887884267631</v>
+      </c>
+      <c r="K72" t="n">
+        <v>13.825</v>
+      </c>
+      <c r="L72" t="n">
+        <v>201</v>
+      </c>
+      <c r="M72" t="n">
+        <v>553</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.338155515370705</v>
+      </c>
+      <c r="O72" t="n">
+        <v>6</v>
+      </c>
+      <c r="P72" t="n">
+        <v>7.014466546112116</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Netclan20241088</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ranking-customer-behaviours-for-business-strategy/</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ranking customer behaviours for business strategy</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>8</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.06666666222222252</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.06249999973958333</v>
+      </c>
+      <c r="H73" t="n">
+        <v>16</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K73" t="n">
+        <v>16</v>
+      </c>
+      <c r="L73" t="n">
+        <v>60</v>
+      </c>
+      <c r="M73" t="n">
+        <v>240</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2.091666666666667</v>
+      </c>
+      <c r="O73" t="n">
+        <v>6</v>
+      </c>
+      <c r="P73" t="n">
+        <v>6.441666666666666</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Netclan20241089</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/algorithmic-trading-for-multiple-commodities-markets-like-forex-metals-energy-etc/</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Algorithmic trading for multiple commodities markets, like Forex, Metals, Energy, etc.</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.6666665555555741</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02884615370747041</v>
+      </c>
+      <c r="H74" t="n">
+        <v>12.23529411764706</v>
+      </c>
+      <c r="I74" t="n">
+        <v>38.46153846153847</v>
+      </c>
+      <c r="J74" t="n">
+        <v>20.27873303167421</v>
+      </c>
+      <c r="K74" t="n">
+        <v>12.23529411764706</v>
+      </c>
+      <c r="L74" t="n">
+        <v>80</v>
+      </c>
+      <c r="M74" t="n">
+        <v>208</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2.379807692307693</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>7.115384615384615</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Netclan20241090</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/trading-bot-for-forex/</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Trading Bot for FOREX</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.199999960000008</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0381679386399394</v>
+      </c>
+      <c r="H75" t="n">
+        <v>14.55555555555556</v>
+      </c>
+      <c r="I75" t="n">
+        <v>24.42748091603053</v>
+      </c>
+      <c r="J75" t="n">
+        <v>15.59321458863444</v>
+      </c>
+      <c r="K75" t="n">
+        <v>14.55555555555556</v>
+      </c>
+      <c r="L75" t="n">
+        <v>32</v>
+      </c>
+      <c r="M75" t="n">
+        <v>131</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2.022900763358779</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5.931297709923665</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Netclan20241091</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/python-model-for-the-analysis-of-sector-specific-stock-etfs-for-investment-purposes%ef%bf%bc/</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Python model for the analysis of sector-specific stock ETFs for investment purposes</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>7</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.399999960000004</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.04999999975</v>
+      </c>
+      <c r="H76" t="n">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="I76" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>17.70588235294118</v>
+      </c>
+      <c r="K76" t="n">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="L76" t="n">
+        <v>65</v>
+      </c>
+      <c r="M76" t="n">
+        <v>200</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2.255</v>
+      </c>
+      <c r="O76" t="n">
+        <v>5</v>
+      </c>
+      <c r="P76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Netclan20241092</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/medical-classification/</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Medical Classification</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.04081632636401499</v>
+      </c>
+      <c r="H77" t="n">
+        <v>14.41176470588235</v>
+      </c>
+      <c r="I77" t="n">
+        <v>26.93877551020408</v>
+      </c>
+      <c r="J77" t="n">
+        <v>16.54021608643458</v>
+      </c>
+      <c r="K77" t="n">
+        <v>14.41176470588235</v>
+      </c>
+      <c r="L77" t="n">
+        <v>66</v>
+      </c>
+      <c r="M77" t="n">
+        <v>245</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.093877551020408</v>
+      </c>
+      <c r="O77" t="n">
+        <v>7</v>
+      </c>
+      <c r="P77" t="n">
+        <v>6.530612244897959</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Netclan20241093</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/design-develop-bert-question-answering-model-explanations-with-visualization/</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Design &amp; Develop BERT Question Answering model explanations with visualization</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.02040816316118284</v>
+      </c>
+      <c r="H78" t="n">
+        <v>15.07692307692308</v>
+      </c>
+      <c r="I78" t="n">
+        <v>21.93877551020408</v>
+      </c>
+      <c r="J78" t="n">
+        <v>14.80627943485086</v>
+      </c>
+      <c r="K78" t="n">
+        <v>15.07692307692308</v>
+      </c>
+      <c r="L78" t="n">
+        <v>43</v>
+      </c>
+      <c r="M78" t="n">
+        <v>196</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.959183673469388</v>
+      </c>
+      <c r="O78" t="n">
+        <v>11</v>
+      </c>
+      <c r="P78" t="n">
+        <v>6.581632653061225</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Netclan20241094</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/design-and-develop-solution-to-anomaly-detection-classification-problems/</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Design and develop solution to anomaly detection classification problems</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>6</v>
+      </c>
+      <c r="E79" t="n">
+        <v>14</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.399999980000001</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.1242236017128969</v>
+      </c>
+      <c r="H79" t="n">
+        <v>12.38461538461539</v>
+      </c>
+      <c r="I79" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="J79" t="n">
+        <v>22.0967032967033</v>
+      </c>
+      <c r="K79" t="n">
+        <v>12.38461538461539</v>
+      </c>
+      <c r="L79" t="n">
+        <v>69</v>
+      </c>
+      <c r="M79" t="n">
+        <v>161</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2.521739130434783</v>
+      </c>
+      <c r="O79" t="n">
+        <v>10</v>
+      </c>
+      <c r="P79" t="n">
+        <v>7.372670807453416</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Netclan20241095</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/an-etl-solution-for-currency-data-to-google-big-query/</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>An ETL Solution for Currency Data to Google Big Query</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>9</v>
+      </c>
+      <c r="E80" t="n">
+        <v>18</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.3333333209876548</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.1194690260200486</v>
+      </c>
+      <c r="H80" t="n">
+        <v>11.89473684210526</v>
+      </c>
+      <c r="I80" t="n">
+        <v>23.45132743362832</v>
+      </c>
+      <c r="J80" t="n">
+        <v>14.13842571029343</v>
+      </c>
+      <c r="K80" t="n">
+        <v>11.89473684210526</v>
+      </c>
+      <c r="L80" t="n">
+        <v>53</v>
+      </c>
+      <c r="M80" t="n">
+        <v>226</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2.070796460176991</v>
+      </c>
+      <c r="O80" t="n">
+        <v>14</v>
+      </c>
+      <c r="P80" t="n">
+        <v>6.407079646017699</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Netclan20241096</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/etl-and-mlops-infrastructure-for-blockchain-analytics/</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ETL and MLOps Infrastructure for Blockchain Analytics</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.01923076916913215</v>
+      </c>
+      <c r="H81" t="n">
+        <v>14.18181818181818</v>
+      </c>
+      <c r="I81" t="n">
+        <v>31.73076923076923</v>
+      </c>
+      <c r="J81" t="n">
+        <v>18.36503496503497</v>
+      </c>
+      <c r="K81" t="n">
+        <v>14.18181818181818</v>
+      </c>
+      <c r="L81" t="n">
+        <v>99</v>
+      </c>
+      <c r="M81" t="n">
+        <v>312</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2.201923076923077</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>6.660256410256411</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Netclan20241097</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/an-agent-based-model-of-a-virtual-power-plant-vpp/</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>An agent-based model of a Virtual Power Plant (VPP)</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>3</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02564102553144861</v>
+      </c>
+      <c r="H82" t="n">
+        <v>11.14285714285714</v>
+      </c>
+      <c r="I82" t="n">
+        <v>35.04273504273504</v>
+      </c>
+      <c r="J82" t="n">
+        <v>18.47423687423688</v>
+      </c>
+      <c r="K82" t="n">
+        <v>11.14285714285714</v>
+      </c>
+      <c r="L82" t="n">
+        <v>82</v>
+      </c>
+      <c r="M82" t="n">
+        <v>234</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2.235042735042735</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>6.935897435897436</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Netclan20241098</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/transform-api-into-sdk-library-and-widget/</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Transform API into SDK library and widget</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.7999999200000081</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.07692307633136096</v>
+      </c>
+      <c r="H83" t="n">
+        <v>18.57142857142857</v>
+      </c>
+      <c r="I83" t="n">
+        <v>31.53846153846154</v>
+      </c>
+      <c r="J83" t="n">
+        <v>20.04395604395604</v>
+      </c>
+      <c r="K83" t="n">
+        <v>18.57142857142857</v>
+      </c>
+      <c r="L83" t="n">
+        <v>41</v>
+      </c>
+      <c r="M83" t="n">
+        <v>130</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2.238461538461539</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" t="n">
+        <v>6.946153846153846</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Netclan20241099</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/integration-of-a-product-to-a-cloud-based-crm-platform/</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Integration of a product to a cloud-based CRM platform</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>8</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.2307692130177529</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.07065217352906428</v>
+      </c>
+      <c r="H84" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I84" t="n">
+        <v>29.89130434782609</v>
+      </c>
+      <c r="J84" t="n">
+        <v>15.63652173913043</v>
+      </c>
+      <c r="K84" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L84" t="n">
+        <v>55</v>
+      </c>
+      <c r="M84" t="n">
+        <v>184</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2.184782608695652</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1</v>
+      </c>
+      <c r="P84" t="n">
+        <v>6.951086956521739</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Netclan20241100</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/a-web-based-dashboard-for-the-filtered-data-retrieval-of-land-records/</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A web-based dashboard for the filtered data retrieval of land records</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>10</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.3333333111111126</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.07142857108843538</v>
+      </c>
+      <c r="H85" t="n">
+        <v>16.15384615384615</v>
+      </c>
+      <c r="I85" t="n">
+        <v>27.14285714285714</v>
+      </c>
+      <c r="J85" t="n">
+        <v>17.31868131868132</v>
+      </c>
+      <c r="K85" t="n">
+        <v>16.15384615384615</v>
+      </c>
+      <c r="L85" t="n">
+        <v>57</v>
+      </c>
+      <c r="M85" t="n">
+        <v>210</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2.10952380952381</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>6.766666666666667</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Netclan20241101</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/integration-of-video-conferencing-data-to-the-existing-web-app/</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Integration of video-conferencing data to the existing web app</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01197604783247876</v>
+      </c>
+      <c r="H86" t="n">
+        <v>15.18181818181818</v>
+      </c>
+      <c r="I86" t="n">
+        <v>23.95209580838323</v>
+      </c>
+      <c r="J86" t="n">
+        <v>15.65356559608057</v>
+      </c>
+      <c r="K86" t="n">
+        <v>15.18181818181818</v>
+      </c>
+      <c r="L86" t="n">
+        <v>40</v>
+      </c>
+      <c r="M86" t="n">
+        <v>167</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2.131736526946108</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>6.658682634730539</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Netclan20241102</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/design-develop-an-app-in-retool-which-shows-the-progress-of-the-added-video/</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Design &amp; develop an app in retool which shows the progress of the added video</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.99999980000004</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03937007843015686</v>
+      </c>
+      <c r="H87" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="I87" t="n">
+        <v>22.04724409448819</v>
+      </c>
+      <c r="J87" t="n">
+        <v>34.21889763779528</v>
+      </c>
+      <c r="K87" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="L87" t="n">
+        <v>28</v>
+      </c>
+      <c r="M87" t="n">
+        <v>127</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2.039370078740157</v>
+      </c>
+      <c r="O87" t="n">
+        <v>4</v>
+      </c>
+      <c r="P87" t="n">
+        <v>6.31496062992126</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Netclan20241103</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/auvik-connectwise-integration-in-grafana/</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Auvik, Connectwise integration in Grafana</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.4285713673469475</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03589743571334648</v>
+      </c>
+      <c r="H88" t="n">
+        <v>10.83333333333333</v>
+      </c>
+      <c r="I88" t="n">
+        <v>31.28205128205128</v>
+      </c>
+      <c r="J88" t="n">
+        <v>16.84615384615385</v>
+      </c>
+      <c r="K88" t="n">
+        <v>10.83333333333333</v>
+      </c>
+      <c r="L88" t="n">
+        <v>61</v>
+      </c>
+      <c r="M88" t="n">
+        <v>195</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2.220512820512821</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>6.876923076923077</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Netclan20241104</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-integration-and-big-data-performance-using-elk-stack/</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Data integration and big data performance using Elasticsearch</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>3</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.024489795818409</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="I89" t="n">
+        <v>36.73469387755102</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17.96054421768708</v>
+      </c>
+      <c r="K89" t="n">
+        <v>8.166666666666666</v>
+      </c>
+      <c r="L89" t="n">
+        <v>90</v>
+      </c>
+      <c r="M89" t="n">
+        <v>245</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2.330612244897959</v>
+      </c>
+      <c r="O89" t="n">
+        <v>5</v>
+      </c>
+      <c r="P89" t="n">
+        <v>7.118367346938776</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Netclan20241105</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/web-data-connector/</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Web Data Connector</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.3333332222222593</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.01176470583621684</v>
+      </c>
+      <c r="H90" t="n">
+        <v>7.96875</v>
+      </c>
+      <c r="I90" t="n">
+        <v>31.76470588235294</v>
+      </c>
+      <c r="J90" t="n">
+        <v>15.89338235294118</v>
+      </c>
+      <c r="K90" t="n">
+        <v>7.96875</v>
+      </c>
+      <c r="L90" t="n">
+        <v>81</v>
+      </c>
+      <c r="M90" t="n">
+        <v>255</v>
+      </c>
+      <c r="N90" t="n">
+        <v>2.192156862745098</v>
+      </c>
+      <c r="O90" t="n">
+        <v>3</v>
+      </c>
+      <c r="P90" t="n">
+        <v>6.564705882352941</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Netclan20241106</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/an-app-for-updating-the-email-id-of-the-user-and-stripe-refund-tool-using-retool/</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>An app for updating the email id of the user and stripe refund tool using retool</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.7777776913580343</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0538922152461544</v>
+      </c>
+      <c r="H91" t="n">
+        <v>55.66666666666666</v>
+      </c>
+      <c r="I91" t="n">
+        <v>19.76047904191617</v>
+      </c>
+      <c r="J91" t="n">
+        <v>30.17085828343313</v>
+      </c>
+      <c r="K91" t="n">
+        <v>55.66666666666666</v>
+      </c>
+      <c r="L91" t="n">
+        <v>33</v>
+      </c>
+      <c r="M91" t="n">
+        <v>167</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2.005988023952096</v>
+      </c>
+      <c r="O91" t="n">
+        <v>4</v>
+      </c>
+      <c r="P91" t="n">
+        <v>6.107784431137724</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Netclan20241107</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/an-ai-ml-based-web-application-that-detects-the-correctness-of-text-in-a-given-video/</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>An AI ML-based web application that detects the correctness of text in a given video</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>4</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.3846153550295881</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.06403940855153001</v>
+      </c>
+      <c r="H92" t="n">
+        <v>33.83333333333334</v>
+      </c>
+      <c r="I92" t="n">
+        <v>23.64532019704433</v>
+      </c>
+      <c r="J92" t="n">
+        <v>22.99146141215107</v>
+      </c>
+      <c r="K92" t="n">
+        <v>33.83333333333334</v>
+      </c>
+      <c r="L92" t="n">
+        <v>48</v>
+      </c>
+      <c r="M92" t="n">
+        <v>203</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.985221674876847</v>
+      </c>
+      <c r="O92" t="n">
+        <v>4</v>
+      </c>
+      <c r="P92" t="n">
+        <v>6.389162561576355</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Netclan20241108</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/website-tracking-and-insights-using-google-analytics-google-tag-manager/</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Website Tracking and Insights using Google Analytics, &amp; Google Tag Manager</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>22</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.8333332986111125</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04188481668082929</v>
+      </c>
+      <c r="H93" t="n">
+        <v>10.81132075471698</v>
+      </c>
+      <c r="I93" t="n">
+        <v>42.40837696335078</v>
+      </c>
+      <c r="J93" t="n">
+        <v>21.28787908722711</v>
+      </c>
+      <c r="K93" t="n">
+        <v>10.81132075471698</v>
+      </c>
+      <c r="L93" t="n">
+        <v>243</v>
+      </c>
+      <c r="M93" t="n">
+        <v>573</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2.350785340314136</v>
+      </c>
+      <c r="O93" t="n">
+        <v>3</v>
+      </c>
+      <c r="P93" t="n">
+        <v>6.862129144851658</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Netclan20241109</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/dashboard-to-track-the-analytics-of-the-website-using-google-analytics-and-google-tag-manager/</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Dashboard to track the analytics of the website using Google Analytics and Google Tag Manager</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>24</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.9199999632000014</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04302925982266909</v>
+      </c>
+      <c r="H94" t="n">
+        <v>11.85714285714286</v>
+      </c>
+      <c r="I94" t="n">
+        <v>36.66092943201377</v>
+      </c>
+      <c r="J94" t="n">
+        <v>19.40722891566265</v>
+      </c>
+      <c r="K94" t="n">
+        <v>11.85714285714286</v>
+      </c>
+      <c r="L94" t="n">
+        <v>213</v>
+      </c>
+      <c r="M94" t="n">
+        <v>581</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2.308089500860585</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2</v>
+      </c>
+      <c r="P94" t="n">
+        <v>6.80895008605852</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Netclan20241110</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/power-bi-dashboard-on-operations-transactions-and-marketing-embedding-the-dashboard-to-web-app/</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Power BI Dashboard on Operations, Transactions, and Marketing Data, embedding the Dashboard to Web App</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.4285713673469475</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04046242751177788</v>
+      </c>
+      <c r="H95" t="n">
+        <v>10.8125</v>
+      </c>
+      <c r="I95" t="n">
+        <v>32.94797687861271</v>
+      </c>
+      <c r="J95" t="n">
+        <v>17.50419075144509</v>
+      </c>
+      <c r="K95" t="n">
+        <v>10.8125</v>
+      </c>
+      <c r="L95" t="n">
+        <v>57</v>
+      </c>
+      <c r="M95" t="n">
+        <v>173</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2.208092485549133</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1</v>
+      </c>
+      <c r="P95" t="n">
+        <v>6.69364161849711</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Netclan20241111</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/nft-data-automation-looksrare-and-etl-tool/</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NFT Data Automation (looksrare), and ETL tool</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>6</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.199999980000002</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04739336470429685</v>
+      </c>
+      <c r="H96" t="n">
+        <v>10.04761904761905</v>
+      </c>
+      <c r="I96" t="n">
+        <v>28.90995260663507</v>
+      </c>
+      <c r="J96" t="n">
+        <v>15.58302866170165</v>
+      </c>
+      <c r="K96" t="n">
+        <v>10.04761904761905</v>
+      </c>
+      <c r="L96" t="n">
+        <v>61</v>
+      </c>
+      <c r="M96" t="n">
+        <v>211</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2.180094786729858</v>
+      </c>
+      <c r="O96" t="n">
+        <v>3</v>
+      </c>
+      <c r="P96" t="n">
+        <v>6.42654028436019</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Netclan20241112</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/optimize-the-data-scraper-program-to-easily-accommodate-large-files-and-solve-oom-errors/</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Optimize the data scraper program to easily accommodate large files and solve OOM errors</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.09090908264462885</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.07586206844233057</v>
+      </c>
+      <c r="H97" t="n">
+        <v>11.15384615384615</v>
+      </c>
+      <c r="I97" t="n">
+        <v>31.03448275862069</v>
+      </c>
+      <c r="J97" t="n">
+        <v>16.87533156498674</v>
+      </c>
+      <c r="K97" t="n">
+        <v>11.15384615384615</v>
+      </c>
+      <c r="L97" t="n">
+        <v>45</v>
+      </c>
+      <c r="M97" t="n">
+        <v>145</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2.193103448275862</v>
+      </c>
+      <c r="O97" t="n">
+        <v>2</v>
+      </c>
+      <c r="P97" t="n">
+        <v>6.827586206896552</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Netclan20241113</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/making-a-robust-way-to-sync-data-from-airtables-to-mongodb-using-python-etl-solution/</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Making a robust way to sync data from airtables to mongoDB using python – ETL Solution</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>4</v>
+      </c>
+      <c r="E98" t="n">
+        <v>7</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.2727272479338866</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.05314009636164205</v>
+      </c>
+      <c r="H98" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="I98" t="n">
+        <v>25.60386473429952</v>
+      </c>
+      <c r="J98" t="n">
+        <v>14.38154589371981</v>
+      </c>
+      <c r="K98" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="L98" t="n">
+        <v>53</v>
+      </c>
+      <c r="M98" t="n">
+        <v>207</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2.101449275362319</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1</v>
+      </c>
+      <c r="P98" t="n">
+        <v>6.594202898550725</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Netclan20241114</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/incident-duration-prediction-infrastructure-and-real-estate/</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Incident Duration Prediction – Infrastructure and Real Estate</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.3333332222222593</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02222222205761317</v>
+      </c>
+      <c r="H99" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="I99" t="n">
+        <v>39.25925925925926</v>
+      </c>
+      <c r="J99" t="n">
+        <v>20.20370370370371</v>
+      </c>
+      <c r="K99" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="L99" t="n">
+        <v>53</v>
+      </c>
+      <c r="M99" t="n">
+        <v>135</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2.385185185185185</v>
+      </c>
+      <c r="O99" t="n">
+        <v>4</v>
+      </c>
+      <c r="P99" t="n">
+        <v>7.377777777777778</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Netclan20241115</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/statistical-data-analysis-of-reinforced-concrete/</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Statistical Data Analysis of Reinforced Concrete</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>10</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.5384614970414233</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0469314077728108</v>
+      </c>
+      <c r="H100" t="n">
+        <v>17.3125</v>
+      </c>
+      <c r="I100" t="n">
+        <v>39.71119133574007</v>
+      </c>
+      <c r="J100" t="n">
+        <v>22.80947653429603</v>
+      </c>
+      <c r="K100" t="n">
+        <v>17.3125</v>
+      </c>
+      <c r="L100" t="n">
+        <v>110</v>
+      </c>
+      <c r="M100" t="n">
+        <v>277</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2.465703971119134</v>
+      </c>
+      <c r="O100" t="n">
+        <v>5</v>
+      </c>
+      <c r="P100" t="n">
+        <v>7.48014440433213</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Netclan20241116</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/database-normalization-segmentation-with-google-data-studio-dashboard-insights/</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Database Normalization &amp; Segmentation with Google Data Studio Dashboard Insights</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.99999980000004</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03472222198109568</v>
+      </c>
+      <c r="H101" t="n">
+        <v>8.470588235294118</v>
+      </c>
+      <c r="I101" t="n">
+        <v>28.47222222222222</v>
+      </c>
+      <c r="J101" t="n">
+        <v>14.77712418300653</v>
+      </c>
+      <c r="K101" t="n">
+        <v>8.470588235294118</v>
+      </c>
+      <c r="L101" t="n">
+        <v>41</v>
+      </c>
+      <c r="M101" t="n">
+        <v>144</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2.326388888888889</v>
+      </c>
+      <c r="O101" t="n">
+        <v>8</v>
+      </c>
+      <c r="P101" t="n">
+        <v>6.701388888888889</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Netclan20241117</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/power-bi-dashboard-to-drive-insights-from-complex-data-to-generate-business-insights/</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Power BI dashboard to drive insights from complex data to generate business insights</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>4</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.333333277777787</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.03243243225712199</v>
+      </c>
+      <c r="H102" t="n">
+        <v>9.736842105263158</v>
+      </c>
+      <c r="I102" t="n">
+        <v>27.02702702702703</v>
+      </c>
+      <c r="J102" t="n">
+        <v>14.70554765291607</v>
+      </c>
+      <c r="K102" t="n">
+        <v>9.736842105263158</v>
+      </c>
+      <c r="L102" t="n">
+        <v>50</v>
+      </c>
+      <c r="M102" t="n">
+        <v>185</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2.167567567567568</v>
+      </c>
+      <c r="O102" t="n">
+        <v>8</v>
+      </c>
+      <c r="P102" t="n">
+        <v>6.481081081081081</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Netclan20241118</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/real-time-dashboard-to-monitor-infrastructure-activity-and-machines/</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Real-time dashboard to monitor infrastructure activity and Machines</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.4999998750000312</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0245398771500621</v>
+      </c>
+      <c r="H103" t="n">
+        <v>13.58333333333333</v>
+      </c>
+      <c r="I103" t="n">
+        <v>29.4478527607362</v>
+      </c>
+      <c r="J103" t="n">
+        <v>17.21247443762782</v>
+      </c>
+      <c r="K103" t="n">
+        <v>13.58333333333333</v>
+      </c>
+      <c r="L103" t="n">
+        <v>48</v>
+      </c>
+      <c r="M103" t="n">
+        <v>163</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2.190184049079754</v>
+      </c>
+      <c r="O103" t="n">
+        <v>6</v>
+      </c>
+      <c r="P103" t="n">
+        <v>6.717791411042945</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Netclan20241119</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/electric-vehicles-ev-load-management-system-to-forecast-energy-demand/</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Electric Vehicles (EV) Load Management System to Forecast Energy Demand</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.199999980000002</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.03663003649586067</v>
+      </c>
+      <c r="H104" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="I104" t="n">
+        <v>34.7985347985348</v>
+      </c>
+      <c r="J104" t="n">
+        <v>19.37941391941392</v>
+      </c>
+      <c r="K104" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="L104" t="n">
+        <v>95</v>
+      </c>
+      <c r="M104" t="n">
+        <v>273</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2.373626373626374</v>
+      </c>
+      <c r="O104" t="n">
+        <v>10</v>
+      </c>
+      <c r="P104" t="n">
+        <v>6.728937728937729</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Netclan20241120</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/power-bi-data-driven-map-dashboard/</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Power BI Data-Driven Map Dashboard</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>4</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.9999997500000625</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.02836879412504401</v>
+      </c>
+      <c r="H105" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>21.98581560283688</v>
+      </c>
+      <c r="J105" t="n">
+        <v>14.43432624113475</v>
+      </c>
+      <c r="K105" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>31</v>
+      </c>
+      <c r="M105" t="n">
+        <v>141</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2.141843971631206</v>
+      </c>
+      <c r="O105" t="n">
+        <v>2</v>
+      </c>
+      <c r="P105" t="n">
+        <v>6.546099290780142</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Netclan20241121</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/google-local-service-ads-lsa-leads-dashboard/</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Google Local Service Ads (LSA) Leads Dashboard</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>39</v>
+      </c>
+      <c r="E106" t="n">
+        <v>7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.6956521587901705</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.08695652157475138</v>
+      </c>
+      <c r="H106" t="n">
+        <v>9.618181818181819</v>
+      </c>
+      <c r="I106" t="n">
+        <v>31.56899810964083</v>
+      </c>
+      <c r="J106" t="n">
+        <v>16.47487197112906</v>
+      </c>
+      <c r="K106" t="n">
+        <v>9.618181818181819</v>
+      </c>
+      <c r="L106" t="n">
+        <v>167</v>
+      </c>
+      <c r="M106" t="n">
+        <v>529</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2.172022684310019</v>
+      </c>
+      <c r="O106" t="n">
+        <v>4</v>
+      </c>
+      <c r="P106" t="n">
+        <v>6.665406427221172</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Netclan20241122</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/aws-lex-voice-and-chatbot/</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>AWS Lex Voice and Chatbot</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>14</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.8666666088888928</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.04491017950625695</v>
+      </c>
+      <c r="H107" t="n">
+        <v>10.4375</v>
+      </c>
+      <c r="I107" t="n">
+        <v>19.46107784431138</v>
+      </c>
+      <c r="J107" t="n">
+        <v>11.95943113772455</v>
+      </c>
+      <c r="K107" t="n">
+        <v>10.4375</v>
+      </c>
+      <c r="L107" t="n">
+        <v>65</v>
+      </c>
+      <c r="M107" t="n">
+        <v>334</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1.92814371257485</v>
+      </c>
+      <c r="O107" t="n">
+        <v>21</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5.976047904191617</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Netclan20241123</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/metabridges-api-decentraland-integration/</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>MetaBridges API Decentraland Integration – AR, VR</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.4999998750000312</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.02010050241155526</v>
+      </c>
+      <c r="H108" t="n">
+        <v>12.4375</v>
+      </c>
+      <c r="I108" t="n">
+        <v>31.15577889447236</v>
+      </c>
+      <c r="J108" t="n">
+        <v>17.43731155778895</v>
+      </c>
+      <c r="K108" t="n">
+        <v>12.4375</v>
+      </c>
+      <c r="L108" t="n">
+        <v>62</v>
+      </c>
+      <c r="M108" t="n">
+        <v>199</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2.165829145728643</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>6.457286432160804</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Netclan20241124</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/microsoft-azure-chatbot-with-luis-language-understanding/</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Microsoft Azure chatbot with LUIS (Language Understanding)</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>6</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.4999999375000079</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0465116276365603</v>
+      </c>
+      <c r="H109" t="n">
+        <v>28.66666666666667</v>
+      </c>
+      <c r="I109" t="n">
+        <v>37.2093023255814</v>
+      </c>
+      <c r="J109" t="n">
+        <v>26.35038759689922</v>
+      </c>
+      <c r="K109" t="n">
+        <v>28.66666666666667</v>
+      </c>
+      <c r="L109" t="n">
+        <v>64</v>
+      </c>
+      <c r="M109" t="n">
+        <v>172</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2.220930232558139</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>6.453488372093023</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Netclan20241125</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/impact-of-news-media-and-press-on-innovation-startups-and-investments/</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Impact of news, media, and press on innovation, startups, and investments</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>8</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.3333333055555579</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.07142857100340136</v>
+      </c>
+      <c r="H110" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I110" t="n">
+        <v>22.61904761904762</v>
+      </c>
+      <c r="J110" t="n">
+        <v>12.40761904761905</v>
+      </c>
+      <c r="K110" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L110" t="n">
+        <v>38</v>
+      </c>
+      <c r="M110" t="n">
+        <v>168</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2.178571428571428</v>
+      </c>
+      <c r="O110" t="n">
+        <v>8</v>
+      </c>
+      <c r="P110" t="n">
+        <v>6.494047619047619</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Netclan20241126</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/aws-quicksight-reporting-dashboard/</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>AWS QuickSight Reporting Dashboard</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>10</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.4285713979591859</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.04242424229568412</v>
+      </c>
+      <c r="H111" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="I111" t="n">
+        <v>24.54545454545455</v>
+      </c>
+      <c r="J111" t="n">
+        <v>17.15151515151515</v>
+      </c>
+      <c r="K111" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="L111" t="n">
+        <v>81</v>
+      </c>
+      <c r="M111" t="n">
+        <v>330</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2.081818181818182</v>
+      </c>
+      <c r="O111" t="n">
+        <v>5</v>
+      </c>
+      <c r="P111" t="n">
+        <v>6.209090909090909</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Netclan20241127</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/google-data-studio-dashboard-for-marketing-ads-and-traction-data/</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Google Data Studio Dashboard for Marketing, ads and Traction data</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.3846153550295881</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.04140127375349913</v>
+      </c>
+      <c r="H112" t="n">
+        <v>14.95238095238095</v>
+      </c>
+      <c r="I112" t="n">
+        <v>25.15923566878981</v>
+      </c>
+      <c r="J112" t="n">
+        <v>16.04464664846831</v>
+      </c>
+      <c r="K112" t="n">
+        <v>14.95238095238095</v>
+      </c>
+      <c r="L112" t="n">
+        <v>79</v>
+      </c>
+      <c r="M112" t="n">
+        <v>314</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2.028662420382166</v>
+      </c>
+      <c r="O112" t="n">
+        <v>8</v>
+      </c>
+      <c r="P112" t="n">
+        <v>6.369426751592357</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Netclan20241128</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/gangala-in-e-commerce-big-data-etl-elt-solution-and-data-warehouse/</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Gangala.in: E-commerce Big Data ETL / ELT Solution and Data Warehouse</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>6</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.3333332962963004</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.04522613042599934</v>
+      </c>
+      <c r="H113" t="n">
+        <v>13.26666666666667</v>
+      </c>
+      <c r="I113" t="n">
+        <v>30.15075376884422</v>
+      </c>
+      <c r="J113" t="n">
+        <v>17.36696817420436</v>
+      </c>
+      <c r="K113" t="n">
+        <v>13.26666666666667</v>
+      </c>
+      <c r="L113" t="n">
+        <v>60</v>
+      </c>
+      <c r="M113" t="n">
+        <v>199</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2.135678391959799</v>
+      </c>
+      <c r="O113" t="n">
+        <v>8</v>
+      </c>
+      <c r="P113" t="n">
+        <v>6.35678391959799</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Netclan20241129</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/big-data-solution-to-an-online-multivendor-marketplace-ecommerce-business/</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Big Data solution to an online multivendor marketplace eCommerce business</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>19</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.6521738846880919</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.07419354814776274</v>
+      </c>
+      <c r="H114" t="n">
+        <v>13.47826086956522</v>
+      </c>
+      <c r="I114" t="n">
+        <v>26.7741935483871</v>
+      </c>
+      <c r="J114" t="n">
+        <v>16.10098176718093</v>
+      </c>
+      <c r="K114" t="n">
+        <v>13.47826086956522</v>
+      </c>
+      <c r="L114" t="n">
+        <v>83</v>
+      </c>
+      <c r="M114" t="n">
+        <v>310</v>
+      </c>
+      <c r="N114" t="n">
+        <v>2.145161290322581</v>
+      </c>
+      <c r="O114" t="n">
+        <v>10</v>
+      </c>
+      <c r="P114" t="n">
+        <v>6.406451612903226</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Netclan20241130</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/creating-a-custom-report-and-dashboard-using-the-data-got-from-atera-api/</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Creating a custom report and dashboard using the data got from Atera API</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.199999960000008</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.03846153816568048</v>
+      </c>
+      <c r="H115" t="n">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="I115" t="n">
+        <v>26.15384615384616</v>
+      </c>
+      <c r="J115" t="n">
+        <v>13.92820512820513</v>
+      </c>
+      <c r="K115" t="n">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="L115" t="n">
+        <v>34</v>
+      </c>
+      <c r="M115" t="n">
+        <v>130</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2.084615384615385</v>
+      </c>
+      <c r="O115" t="n">
+        <v>6</v>
+      </c>
+      <c r="P115" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Netclan20241131</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/azure-data-lake-and-power-bi-dashboard/</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Azure Data Lake and Power BI Dashboard</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>10</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.5384614970414233</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.05752212363928264</v>
+      </c>
+      <c r="H116" t="n">
+        <v>17.38461538461538</v>
+      </c>
+      <c r="I116" t="n">
+        <v>40.70796460176992</v>
+      </c>
+      <c r="J116" t="n">
+        <v>23.23703199455412</v>
+      </c>
+      <c r="K116" t="n">
+        <v>17.38461538461538</v>
+      </c>
+      <c r="L116" t="n">
+        <v>92</v>
+      </c>
+      <c r="M116" t="n">
+        <v>226</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2.473451327433628</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>7.314159292035399</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Netclan20241132</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/google-data-studio-pipeline-with-gcp-mysql/</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Google Data Studio Pipeline with GCP/MySQL</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>14</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.6470587854671302</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.03752759373614218</v>
+      </c>
+      <c r="H117" t="n">
+        <v>11.92105263157895</v>
+      </c>
+      <c r="I117" t="n">
+        <v>20.75055187637969</v>
+      </c>
+      <c r="J117" t="n">
+        <v>13.06864180318346</v>
+      </c>
+      <c r="K117" t="n">
+        <v>11.92105263157895</v>
+      </c>
+      <c r="L117" t="n">
+        <v>94</v>
+      </c>
+      <c r="M117" t="n">
+        <v>453</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1.944812362030905</v>
+      </c>
+      <c r="O117" t="n">
+        <v>8</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5.827814569536423</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Netclan20241133</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/quickbooks-dashboard-to-find-patterns-in-finance-sales-and-forecasts/</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>QuickBooks dashboard to find patterns in finance, sales, and forecasts</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>28</v>
+      </c>
+      <c r="E118" t="n">
+        <v>19</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.191489357627886</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.05377574364556551</v>
+      </c>
+      <c r="H118" t="n">
+        <v>14.09677419354839</v>
+      </c>
+      <c r="I118" t="n">
+        <v>26.54462242562929</v>
+      </c>
+      <c r="J118" t="n">
+        <v>16.25655864767107</v>
+      </c>
+      <c r="K118" t="n">
+        <v>14.09677419354839</v>
+      </c>
+      <c r="L118" t="n">
+        <v>232</v>
+      </c>
+      <c r="M118" t="n">
+        <v>874</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2.066361556064073</v>
+      </c>
+      <c r="O118" t="n">
+        <v>12</v>
+      </c>
+      <c r="P118" t="n">
+        <v>6.264302059496567</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Netclan20241134</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/marketing-sales-and-financial-data-business-dashboard-wink-report/</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Marketing, sales, and financial data business dashboard (Wink Report)</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>15</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.6666666296296316</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03435114497261232</v>
+      </c>
+      <c r="H119" t="n">
+        <v>19.40740740740741</v>
+      </c>
+      <c r="I119" t="n">
+        <v>22.51908396946565</v>
+      </c>
+      <c r="J119" t="n">
+        <v>16.77059655074923</v>
+      </c>
+      <c r="K119" t="n">
+        <v>19.40740740740741</v>
+      </c>
+      <c r="L119" t="n">
+        <v>118</v>
+      </c>
+      <c r="M119" t="n">
+        <v>524</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2.024809160305344</v>
+      </c>
+      <c r="O119" t="n">
+        <v>5</v>
+      </c>
+      <c r="P119" t="n">
+        <v>6.280534351145038</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Netclan20241135</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/react-native-apps-in-the-development-portfolio/</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>React Native Apps in the Development Portfolio</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2.305555555555555</v>
+      </c>
+      <c r="I120" t="n">
+        <v>12.04819277108434</v>
+      </c>
+      <c r="J120" t="n">
+        <v>5.741499330655958</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2.305555555555555</v>
+      </c>
+      <c r="L120" t="n">
+        <v>10</v>
+      </c>
+      <c r="M120" t="n">
+        <v>83</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1.602409638554217</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5.120481927710843</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Netclan20241136</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/a-leading-firm-website-seo-optimization/</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>A Leading Law Firm in the USA, Website SEO &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-0.333333277777787</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.06060605999387818</v>
+      </c>
+      <c r="H121" t="n">
+        <v>11</v>
+      </c>
+      <c r="I121" t="n">
+        <v>42.42424242424242</v>
+      </c>
+      <c r="J121" t="n">
+        <v>21.36969696969697</v>
+      </c>
+      <c r="K121" t="n">
+        <v>11</v>
+      </c>
+      <c r="L121" t="n">
+        <v>42</v>
+      </c>
+      <c r="M121" t="n">
+        <v>99</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2.353535353535353</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>6.898989898989899</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Netclan20241137</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/a-leading-hospitality-firm-in-the-usa-website-seo-optimization/</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>A Leading Hospitality Firm in the USA, Website SEO &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.99999980000004</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.05952380881519275</v>
+      </c>
+      <c r="H122" t="n">
+        <v>9.333333333333334</v>
+      </c>
+      <c r="I122" t="n">
+        <v>36.90476190476191</v>
+      </c>
+      <c r="J122" t="n">
+        <v>18.4952380952381</v>
+      </c>
+      <c r="K122" t="n">
+        <v>9.333333333333334</v>
+      </c>
+      <c r="L122" t="n">
+        <v>31</v>
+      </c>
+      <c r="M122" t="n">
+        <v>84</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2.226190476190476</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>6.773809523809524</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Netclan20241138</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/a-leading-firm-in-the-usa-website-seo-optimization/</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>A Leading Firm in the USA, Website SEO &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.1111110987654335</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.08333333256172841</v>
+      </c>
+      <c r="H123" t="n">
+        <v>18</v>
+      </c>
+      <c r="I123" t="n">
+        <v>29.62962962962963</v>
+      </c>
+      <c r="J123" t="n">
+        <v>19.05185185185185</v>
+      </c>
+      <c r="K123" t="n">
+        <v>18</v>
+      </c>
+      <c r="L123" t="n">
+        <v>32</v>
+      </c>
+      <c r="M123" t="n">
+        <v>108</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2.074074074074074</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1</v>
+      </c>
+      <c r="P123" t="n">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Netclan20241139</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/a-leading-musical-instrumental-website-seo-optimization/</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>A Leading Musical Instrumental, Website SEO &amp; Optimization</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.199999960000008</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.07352941068339103</v>
+      </c>
+      <c r="H124" t="n">
+        <v>7.555555555555555</v>
+      </c>
+      <c r="I124" t="n">
+        <v>41.17647058823529</v>
+      </c>
+      <c r="J124" t="n">
+        <v>19.49281045751634</v>
+      </c>
+      <c r="K124" t="n">
+        <v>7.555555555555555</v>
+      </c>
+      <c r="L124" t="n">
+        <v>28</v>
+      </c>
+      <c r="M124" t="n">
+        <v>68</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2.294117647058823</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>6.705882352941177</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Netclan20241140</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/a-leading-firm-in-the-usa-seo-and-website-optimization/</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>A Leading Firm in the USA, SEO and Website Optimization</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.3333332222222593</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.03846153796844182</v>
+      </c>
+      <c r="H125" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="I125" t="n">
+        <v>37.17948717948718</v>
+      </c>
+      <c r="J125" t="n">
+        <v>18.77179487179487</v>
+      </c>
+      <c r="K125" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="L125" t="n">
+        <v>29</v>
+      </c>
+      <c r="M125" t="n">
+        <v>78</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>6.743589743589744</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Netclan20241141</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/immigration-datawarehouse-ai-based-recommendations/</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Immigration Datawarehouse &amp; AI-based recommendations</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>14</v>
+      </c>
+      <c r="E126" t="n">
+        <v>7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.3333333174603182</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.0624999998139881</v>
+      </c>
+      <c r="H126" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>32.44047619047619</v>
+      </c>
+      <c r="J126" t="n">
+        <v>17.45619047619048</v>
+      </c>
+      <c r="K126" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L126" t="n">
+        <v>109</v>
+      </c>
+      <c r="M126" t="n">
+        <v>336</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2.193452380952381</v>
+      </c>
+      <c r="O126" t="n">
+        <v>24</v>
+      </c>
+      <c r="P126" t="n">
+        <v>6.705357142857143</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Netclan20241142</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/lipsync-automation-for-celebrities-and-influencers/</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Lipsync Automation for Celebrities and Influencers</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.9999990000010001</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.0094339621751513</v>
+      </c>
+      <c r="H127" t="n">
+        <v>6.625</v>
+      </c>
+      <c r="I127" t="n">
+        <v>20.75471698113208</v>
+      </c>
+      <c r="J127" t="n">
+        <v>10.95188679245283</v>
+      </c>
+      <c r="K127" t="n">
+        <v>6.625</v>
+      </c>
+      <c r="L127" t="n">
+        <v>22</v>
+      </c>
+      <c r="M127" t="n">
+        <v>106</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2.113207547169811</v>
+      </c>
+      <c r="O127" t="n">
+        <v>4</v>
+      </c>
+      <c r="P127" t="n">
+        <v>6.509433962264151</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Netclan20241143</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/key-audit-matters-predictive-modeling/</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Key Audit Matters Predictive Modeling</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0.3333333055555579</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.03934426216608439</v>
+      </c>
+      <c r="H128" t="n">
+        <v>14.52380952380952</v>
+      </c>
+      <c r="I128" t="n">
+        <v>33.44262295081968</v>
+      </c>
+      <c r="J128" t="n">
+        <v>19.18657298985168</v>
+      </c>
+      <c r="K128" t="n">
+        <v>14.52380952380952</v>
+      </c>
+      <c r="L128" t="n">
+        <v>102</v>
+      </c>
+      <c r="M128" t="n">
+        <v>305</v>
+      </c>
+      <c r="N128" t="n">
+        <v>2.321311475409836</v>
+      </c>
+      <c r="O128" t="n">
+        <v>3</v>
+      </c>
+      <c r="P128" t="n">
+        <v>6.714754098360656</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Netclan20241144</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/splitting-of-songs-into-its-vocals-and-instrumental/</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Splitting of Songs into its Vocals and Instrumental</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.636363578512402</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.07482993146374196</v>
+      </c>
+      <c r="H129" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="I129" t="n">
+        <v>27.2108843537415</v>
+      </c>
+      <c r="J129" t="n">
+        <v>16.7643537414966</v>
+      </c>
+      <c r="K129" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L129" t="n">
+        <v>40</v>
+      </c>
+      <c r="M129" t="n">
+        <v>147</v>
+      </c>
+      <c r="N129" t="n">
+        <v>2.170068027210884</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1</v>
+      </c>
+      <c r="P129" t="n">
+        <v>6.693877551020408</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Netclan20241145</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/ai-and-ml-technologies-to-evaluate-learning-assessments/</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>AI and ML technologies to Evaluate Learning Assessments</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>12</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.5999999600000027</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.0684931503721774</v>
+      </c>
+      <c r="H130" t="n">
+        <v>9.521739130434783</v>
+      </c>
+      <c r="I130" t="n">
+        <v>36.98630136986301</v>
+      </c>
+      <c r="J130" t="n">
+        <v>18.60321620011912</v>
+      </c>
+      <c r="K130" t="n">
+        <v>9.521739130434783</v>
+      </c>
+      <c r="L130" t="n">
+        <v>81</v>
+      </c>
+      <c r="M130" t="n">
+        <v>219</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2.488584474885845</v>
+      </c>
+      <c r="O130" t="n">
+        <v>12</v>
+      </c>
+      <c r="P130" t="n">
+        <v>7.392694063926941</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Netclan20241146</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/datawarehouse-and-recommendations-engine-for-airbnb/</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Datawarehouse, and Recommendations Engine for AirBNB</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.1999999866666676</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.06048387072385536</v>
+      </c>
+      <c r="H131" t="n">
+        <v>11.27272727272727</v>
+      </c>
+      <c r="I131" t="n">
+        <v>31.85483870967742</v>
+      </c>
+      <c r="J131" t="n">
+        <v>17.25102639296188</v>
+      </c>
+      <c r="K131" t="n">
+        <v>11.27272727272727</v>
+      </c>
+      <c r="L131" t="n">
+        <v>79</v>
+      </c>
+      <c r="M131" t="n">
+        <v>248</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2.237903225806452</v>
+      </c>
+      <c r="O131" t="n">
+        <v>10</v>
+      </c>
+      <c r="P131" t="n">
+        <v>6.665322580645161</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Netclan20241147</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/real-estate-data-warehouse/</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Real Estate Data Warehouse</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.99999980000004</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.02392344486161031</v>
+      </c>
+      <c r="H132" t="n">
+        <v>9.952380952380953</v>
+      </c>
+      <c r="I132" t="n">
+        <v>32.53588516746412</v>
+      </c>
+      <c r="J132" t="n">
+        <v>16.99530644793803</v>
+      </c>
+      <c r="K132" t="n">
+        <v>9.952380952380953</v>
+      </c>
+      <c r="L132" t="n">
+        <v>68</v>
+      </c>
+      <c r="M132" t="n">
+        <v>209</v>
+      </c>
+      <c r="N132" t="n">
+        <v>2.229665071770335</v>
+      </c>
+      <c r="O132" t="n">
+        <v>1</v>
+      </c>
+      <c r="P132" t="n">
+        <v>6.784688995215311</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Netclan20241148</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/traction-dashboards-of-marketing-campaigns-and-posts/</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Traction Dashboards of Marketing Campaigns and Posts</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>4</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.333333277777787</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.02985074612014554</v>
+      </c>
+      <c r="H133" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="I133" t="n">
+        <v>30.34825870646766</v>
+      </c>
+      <c r="J133" t="n">
+        <v>16.15930348258706</v>
+      </c>
+      <c r="K133" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="L133" t="n">
+        <v>61</v>
+      </c>
+      <c r="M133" t="n">
+        <v>201</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2.189054726368159</v>
+      </c>
+      <c r="O133" t="n">
+        <v>8</v>
+      </c>
+      <c r="P133" t="n">
+        <v>6.810945273631841</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Netclan20241149</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/google-local-service-ads-lsa-data-warehouse/</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Google Local Service Ads (LSA) Data Warehouse</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.4999998750000312</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.02547770684409104</v>
+      </c>
+      <c r="H134" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="I134" t="n">
+        <v>33.12101910828025</v>
+      </c>
+      <c r="J134" t="n">
+        <v>19.5284076433121</v>
+      </c>
+      <c r="K134" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L134" t="n">
+        <v>52</v>
+      </c>
+      <c r="M134" t="n">
+        <v>157</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2.159235668789809</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>6.401273885350318</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Netclan20241150</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/google-local-service-ads-missed-calls-and-messages-automation-tool/</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Google Local Service Ads Missed Calls and Messages Automation Tool</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.2499999687500039</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.0506329110719436</v>
+      </c>
+      <c r="H135" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="I135" t="n">
+        <v>25.31645569620253</v>
+      </c>
+      <c r="J135" t="n">
+        <v>16.44658227848101</v>
+      </c>
+      <c r="K135" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L135" t="n">
+        <v>40</v>
+      </c>
+      <c r="M135" t="n">
+        <v>158</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2.050632911392405</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Netclan20241151</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/marketing-ads-leads-call-status-data-tool-to-bigquery/</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Marketing Ads Leads Call Status Data Tool to BigQuery</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.599999880000024</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.03546099265630501</v>
+      </c>
+      <c r="H136" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="I136" t="n">
+        <v>34.04255319148936</v>
+      </c>
+      <c r="J136" t="n">
+        <v>19.88368794326241</v>
+      </c>
+      <c r="K136" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="L136" t="n">
+        <v>48</v>
+      </c>
+      <c r="M136" t="n">
+        <v>141</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2.198581560283688</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>6.539007092198582</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Netclan20241152</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/marketing-analytics-to-automate-leads-call-status-and-reporting/</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Marketing Analytics to Automate Leads Call Status and Reporting</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>4</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.599999880000024</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.0340136052107918</v>
+      </c>
+      <c r="H137" t="n">
+        <v>18.375</v>
+      </c>
+      <c r="I137" t="n">
+        <v>27.89115646258503</v>
+      </c>
+      <c r="J137" t="n">
+        <v>18.50646258503401</v>
+      </c>
+      <c r="K137" t="n">
+        <v>18.375</v>
+      </c>
+      <c r="L137" t="n">
+        <v>41</v>
+      </c>
+      <c r="M137" t="n">
+        <v>147</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2.095238095238095</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>6.469387755102041</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Netclan20241153</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/callrail-analytics-leads-report-alert/</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>CallRail, Analytics &amp; Leads Report Alert</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.199999960000008</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.03448275838287753</v>
+      </c>
+      <c r="H138" t="n">
+        <v>10.35714285714286</v>
+      </c>
+      <c r="I138" t="n">
+        <v>31.72413793103448</v>
+      </c>
+      <c r="J138" t="n">
+        <v>16.83251231527094</v>
+      </c>
+      <c r="K138" t="n">
+        <v>10.35714285714286</v>
+      </c>
+      <c r="L138" t="n">
+        <v>46</v>
+      </c>
+      <c r="M138" t="n">
+        <v>145</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2.193103448275862</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>6.579310344827586</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Netclan20241154</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/marketing-automation-tool-to-notify-lead-details-to-clients-over-email-and-phone/</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Marketing Tool to Notify Leads to Clients over Email and Phone</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.3333333055555579</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.07692307642998028</v>
+      </c>
+      <c r="H139" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="I139" t="n">
+        <v>26.28205128205128</v>
+      </c>
+      <c r="J139" t="n">
+        <v>16.75282051282052</v>
+      </c>
+      <c r="K139" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="L139" t="n">
+        <v>41</v>
+      </c>
+      <c r="M139" t="n">
+        <v>156</v>
+      </c>
+      <c r="N139" t="n">
+        <v>2.038461538461538</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>6.288461538461538</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Netclan20241155</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/data-etl-local-service-ads-leads-to-bigquery/</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Data ETL: Local Service Ads Leads to BigQuery</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.3846153550295881</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.0833333327991453</v>
+      </c>
+      <c r="H140" t="n">
+        <v>13</v>
+      </c>
+      <c r="I140" t="n">
+        <v>30.12820512820513</v>
+      </c>
+      <c r="J140" t="n">
+        <v>17.25128205128205</v>
+      </c>
+      <c r="K140" t="n">
+        <v>13</v>
+      </c>
+      <c r="L140" t="n">
+        <v>47</v>
+      </c>
+      <c r="M140" t="n">
+        <v>156</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>6.403846153846154</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Netclan20241156</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/marbles-stimulation-using-python/</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Marbles Stimulation using python</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>18</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.7142856802721105</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.09502262400442252</v>
+      </c>
+      <c r="H141" t="n">
+        <v>11.63157894736842</v>
+      </c>
+      <c r="I141" t="n">
+        <v>29.86425339366516</v>
+      </c>
+      <c r="J141" t="n">
+        <v>16.59833293641343</v>
+      </c>
+      <c r="K141" t="n">
+        <v>11.63157894736842</v>
+      </c>
+      <c r="L141" t="n">
+        <v>66</v>
+      </c>
+      <c r="M141" t="n">
+        <v>221</v>
+      </c>
+      <c r="N141" t="n">
+        <v>2.135746606334842</v>
+      </c>
+      <c r="O141" t="n">
+        <v>2</v>
+      </c>
+      <c r="P141" t="n">
+        <v>6.619909502262443</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Netclan20241157</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/stocktwits-data-structurization/</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Stocktwits Data Structurization</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>14</v>
+      </c>
+      <c r="E142" t="n">
+        <v>11</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.1199999952000002</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.04612546116951022</v>
+      </c>
+      <c r="H142" t="n">
+        <v>9.854545454545455</v>
+      </c>
+      <c r="I142" t="n">
+        <v>26.19926199261993</v>
+      </c>
+      <c r="J142" t="n">
+        <v>14.42152297886615</v>
+      </c>
+      <c r="K142" t="n">
+        <v>9.854545454545455</v>
+      </c>
+      <c r="L142" t="n">
+        <v>142</v>
+      </c>
+      <c r="M142" t="n">
+        <v>542</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2.138376383763838</v>
+      </c>
+      <c r="O142" t="n">
+        <v>6</v>
+      </c>
+      <c r="P142" t="n">
+        <v>6.653136531365313</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Netclan20241158</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/sentimental-analysis-on-shareholder-letter-of-companies/</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Sentimental Analysis on Shareholder Letter of Companies</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>10</v>
+      </c>
+      <c r="E143" t="n">
+        <v>10</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.05555555540123457</v>
+      </c>
+      <c r="H143" t="n">
+        <v>12.85714285714286</v>
+      </c>
+      <c r="I143" t="n">
+        <v>45.83333333333333</v>
+      </c>
+      <c r="J143" t="n">
+        <v>23.47619047619048</v>
+      </c>
+      <c r="K143" t="n">
+        <v>12.85714285714286</v>
+      </c>
+      <c r="L143" t="n">
+        <v>165</v>
+      </c>
+      <c r="M143" t="n">
+        <v>360</v>
+      </c>
+      <c r="N143" t="n">
+        <v>2.544444444444444</v>
+      </c>
+      <c r="O143" t="n">
+        <v>3</v>
+      </c>
+      <c r="P143" t="n">
+        <v>7.266666666666667</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Netclan20241159</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/population-and-community-survey-of-america/</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Population and Community Survey of America</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>13</v>
+      </c>
+      <c r="E144" t="n">
+        <v>10</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.1304347769376184</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.04259259251371742</v>
+      </c>
+      <c r="H144" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I144" t="n">
+        <v>37.4074074074074</v>
+      </c>
+      <c r="J144" t="n">
+        <v>20.36296296296296</v>
+      </c>
+      <c r="K144" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L144" t="n">
+        <v>202</v>
+      </c>
+      <c r="M144" t="n">
+        <v>540</v>
+      </c>
+      <c r="N144" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="O144" t="n">
+        <v>3</v>
+      </c>
+      <c r="P144" t="n">
+        <v>6.788888888888889</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Netclan20241160</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/google-lsa-api-data-automation-and-dashboarding/</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Google LSA API Data Automation and Dashboarding</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>21</v>
+      </c>
+      <c r="E145" t="n">
+        <v>20</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.02439024330755504</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.04999999993902439</v>
+      </c>
+      <c r="H145" t="n">
+        <v>12.23880597014925</v>
+      </c>
+      <c r="I145" t="n">
+        <v>32.80487804878049</v>
+      </c>
+      <c r="J145" t="n">
+        <v>18.0174736075719</v>
+      </c>
+      <c r="K145" t="n">
+        <v>12.23880597014925</v>
+      </c>
+      <c r="L145" t="n">
+        <v>269</v>
+      </c>
+      <c r="M145" t="n">
+        <v>820</v>
+      </c>
+      <c r="N145" t="n">
+        <v>2.228048780487805</v>
+      </c>
+      <c r="O145" t="n">
+        <v>7</v>
+      </c>
+      <c r="P145" t="n">
+        <v>6.536585365853658</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Netclan20241161</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/healthcare-data-analysis/</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Healthcare Data Analysis</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>12</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.1428571360544221</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.09999999952380953</v>
+      </c>
+      <c r="H146" t="n">
+        <v>9.130434782608695</v>
+      </c>
+      <c r="I146" t="n">
+        <v>24.28571428571428</v>
+      </c>
+      <c r="J146" t="n">
+        <v>13.36645962732919</v>
+      </c>
+      <c r="K146" t="n">
+        <v>9.130434782608695</v>
+      </c>
+      <c r="L146" t="n">
+        <v>51</v>
+      </c>
+      <c r="M146" t="n">
+        <v>210</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2.138095238095238</v>
+      </c>
+      <c r="O146" t="n">
+        <v>14</v>
+      </c>
+      <c r="P146" t="n">
+        <v>6.404761904761905</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Netclan20241162</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/budget-sales-kpi-dashboard-using-power-bi/</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Budget, Sales KPI Dashboard using Power BI</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.9999990000010001</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.0094339621751513</v>
+      </c>
+      <c r="H147" t="n">
+        <v>106</v>
+      </c>
+      <c r="I147" t="n">
+        <v>14.15094339622642</v>
+      </c>
+      <c r="J147" t="n">
+        <v>48.06037735849057</v>
+      </c>
+      <c r="K147" t="n">
+        <v>106</v>
+      </c>
+      <c r="L147" t="n">
+        <v>15</v>
+      </c>
+      <c r="M147" t="n">
+        <v>106</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2.018867924528302</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>6.132075471698113</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Netclan20241163</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://insights.blackcoffer.com/amazon-buy-bot-an-automation-ai-tool-to-auto-checkouts/</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Amazon Buy Bot, an Automation AI tool to Auto-Checkouts</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.99999950000025</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.02702702666179694</v>
+      </c>
+      <c r="H148" t="n">
+        <v>10.57142857142857</v>
+      </c>
+      <c r="I148" t="n">
+        <v>31.08108108108108</v>
+      </c>
+      <c r="J148" t="n">
+        <v>16.66100386100386</v>
+      </c>
+      <c r="K148" t="n">
+        <v>10.57142857142857</v>
+      </c>
+      <c r="L148" t="n">
+        <v>23</v>
+      </c>
+      <c r="M148" t="n">
+        <v>74</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2.189189189189189</v>
+      </c>
+      <c r="O148" t="n">
+        <v>1</v>
+      </c>
+      <c r="P148" t="n">
+        <v>6.743243243243243</v>
       </c>
     </row>
   </sheetData>
